--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susingla\Desktop\Demo\MVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\PycharmProjects\newpull\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -6844,7 +6844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7116,6 +7116,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7511,13 +7514,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>487</v>
       </c>
@@ -7536,30 +7539,30 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="46" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>486</v>
       </c>
@@ -7581,7 +7584,7 @@
       <c r="O1" s="93"/>
       <c r="P1" s="94"/>
     </row>
-    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7631,7 +7634,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7669,7 +7672,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7707,7 +7710,7 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>321</v>
       </c>
@@ -7745,7 +7748,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>321</v>
       </c>
@@ -7783,7 +7786,7 @@
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>321</v>
       </c>
@@ -7821,7 +7824,7 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7859,23 +7862,23 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="23" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>597</v>
       </c>
@@ -7889,7 +7892,7 @@
       <c r="I1" s="93"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7947,7 +7950,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7973,7 +7976,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -7999,7 +8002,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>321</v>
       </c>
@@ -8025,7 +8028,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>321</v>
       </c>
@@ -8051,7 +8054,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -8085,20 +8088,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="46" customWidth="1"/>
     <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>460</v>
       </c>
@@ -8111,7 +8114,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8160,19 +8163,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>461</v>
       </c>
@@ -8193,7 +8196,7 @@
       <c r="P1" s="91"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8262,24 +8265,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="46" customWidth="1"/>
     <col min="11" max="11" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>468</v>
       </c>
@@ -8303,7 +8306,7 @@
       <c r="S1" s="91"/>
       <c r="T1" s="91"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8389,7 +8392,7 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8478,7 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8513,7 +8516,7 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -8574,17 +8577,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>469</v>
       </c>
@@ -8595,7 +8598,7 @@
       <c r="F1" s="91"/>
       <c r="G1" s="91"/>
     </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -8618,7 +8621,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8629,7 +8632,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8673,7 +8676,7 @@
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8710,27 +8713,27 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
     <col min="7" max="7" width="15" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="46" customWidth="1"/>
     <col min="10" max="10" width="16" style="46" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>476</v>
       </c>
@@ -8753,7 +8756,7 @@
       <c r="P1" s="105"/>
       <c r="Q1" s="105"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8827,7 +8830,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="47"/>
       <c r="C5" s="30"/>
@@ -8891,7 +8894,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8915,7 +8918,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -8948,7 +8951,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -8987,7 +8990,7 @@
       </c>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9024,7 +9027,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -9075,21 +9078,21 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="46" customWidth="1"/>
     <col min="8" max="8" width="25" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>462</v>
       </c>
@@ -9109,7 +9112,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
     </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -9179,7 +9182,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9247,7 +9250,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9308,24 +9311,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="46" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="46" customWidth="1"/>
     <col min="6" max="6" width="18" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="46" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="46" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="46" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>483</v>
       </c>
@@ -9350,7 +9353,7 @@
       <c r="T1" s="93"/>
       <c r="U1" s="94"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -9415,7 +9418,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9440,7 +9443,7 @@
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9546,7 +9549,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9610,24 +9613,24 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="46" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="21.08984375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="46" customWidth="1"/>
+    <col min="14" max="16" width="13.77734375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" style="46" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>453</v>
       </c>
@@ -9652,7 +9655,7 @@
       <c r="R1" s="106"/>
       <c r="S1" s="107"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9737,7 @@
       <c r="R3" s="47"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9767,7 +9770,7 @@
       </c>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9790,7 +9793,7 @@
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -9813,7 +9816,7 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -9836,7 +9839,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -9859,7 +9862,7 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -9886,7 +9889,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -9915,7 +9918,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -9950,7 +9953,7 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -9985,7 +9988,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -10012,7 +10015,7 @@
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -10039,7 +10042,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -10064,7 +10067,7 @@
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -10091,7 +10094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -10116,7 +10119,7 @@
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -10143,7 +10146,7 @@
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -10164,7 +10167,7 @@
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
@@ -10191,7 +10194,7 @@
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -10214,7 +10217,7 @@
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +10248,7 @@
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -10306,19 +10309,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>455</v>
       </c>
@@ -10327,7 +10330,7 @@
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -10359,7 +10362,7 @@
       </c>
       <c r="E3" s="45"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
@@ -10374,7 +10377,7 @@
       </c>
       <c r="E4" s="45"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -10389,7 +10392,7 @@
       </c>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
@@ -10421,15 +10424,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
         <v>454</v>
       </c>
@@ -10439,7 +10442,7 @@
       <c r="E1" s="109"/>
       <c r="F1" s="110"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10469,7 +10472,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -10503,7 +10506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
@@ -10519,7 +10522,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -10560,20 +10563,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>482</v>
       </c>
@@ -10593,7 +10596,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10663,7 +10666,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10705,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
@@ -10733,7 +10736,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -10792,17 +10795,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>250</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>215</v>
       </c>
@@ -10842,7 +10845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>219</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>199</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>192</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>212</v>
       </c>
@@ -10913,7 +10916,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>224</v>
       </c>
@@ -10922,7 +10925,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>198</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>203</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>217</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>222</v>
       </c>
@@ -10954,153 +10957,153 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11117,21 +11120,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="46"/>
+    <col min="3" max="3" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="46"/>
     <col min="8" max="8" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="9" max="9" width="13.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>477</v>
       </c>
@@ -11144,7 +11147,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -11173,7 +11176,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -11186,7 +11189,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -11216,7 +11219,7 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -11261,32 +11264,32 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="46" customWidth="1"/>
     <col min="9" max="9" width="13" style="46" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="68" customWidth="1"/>
-    <col min="12" max="13" width="20.54296875" style="46"/>
-    <col min="14" max="14" width="20.54296875" style="3"/>
-    <col min="15" max="17" width="20.54296875" style="46"/>
+    <col min="10" max="10" width="16.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.5546875" style="46"/>
+    <col min="14" max="14" width="20.5546875" style="3"/>
+    <col min="15" max="17" width="20.5546875" style="46"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.54296875" style="46"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="20.54296875" style="46"/>
-    <col min="25" max="25" width="23.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.54296875" style="46"/>
+    <col min="19" max="21" width="20.5546875" style="46"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="20.5546875" style="46"/>
+    <col min="25" max="25" width="23.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.5546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>602</v>
       </c>
@@ -11314,7 +11317,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11416,7 +11419,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11490,7 +11493,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11604,39 +11607,39 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="68" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="46" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="46"/>
+    <col min="27" max="27" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>603</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11766,7 +11769,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11840,7 +11843,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11955,37 +11958,37 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="25" width="14.54296875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="46"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="25" width="14.5546875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>604</v>
       </c>
@@ -12013,7 +12016,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
@@ -12114,7 +12117,7 @@
       <c r="W3" s="71"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="60"/>
       <c r="C5" s="70"/>
@@ -12231,20 +12234,20 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>344</v>
       </c>
@@ -12273,7 +12276,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>346</v>
       </c>
@@ -12351,7 +12354,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>343</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>347</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>332</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
@@ -12423,7 +12426,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47" t="s">
@@ -12439,7 +12442,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
@@ -12455,7 +12458,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47" t="s">
@@ -12471,7 +12474,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47" t="s">
@@ -12485,7 +12488,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47" t="s">
@@ -12499,7 +12502,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47" t="s">
@@ -12513,472 +12516,472 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="47" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I16" s="47" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="47" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="47" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="47" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="47" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" s="47" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="47" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I26" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I27" s="47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I29" s="47" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I30" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I31" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I32" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="47" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="47" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="47" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="47" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="47" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="47" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="47" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="47" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="47" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="47" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I61" s="47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I62" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I63" s="47" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I64" s="47" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="47" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="47" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="47" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="47" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="47" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="47" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="47" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="47" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="47" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="47" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="47" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="47" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="47" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="47" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="47" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="47" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="47" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="47" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="47" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="47" t="s">
         <v>594</v>
       </c>
@@ -12994,22 +12997,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>456</v>
       </c>
@@ -13018,7 +13021,7 @@
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13035,7 +13038,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -13048,7 +13051,7 @@
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -13074,7 +13077,7 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
@@ -13087,20 +13090,20 @@
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="112" t="s">
         <v>641</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="60" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -13112,37 +13115,6 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="56"/>
-      <c r="C9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="56"/>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="56"/>
-      <c r="C12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13161,21 +13133,21 @@
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="46" customWidth="1"/>
     <col min="4" max="4" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>457</v>
       </c>
@@ -13187,7 +13159,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13213,7 +13185,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="46" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -13233,7 +13205,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -13245,7 +13217,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -13257,7 +13229,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -13269,7 +13241,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -13281,7 +13253,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -13293,7 +13265,7 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -13305,7 +13277,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -13317,7 +13289,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -13329,7 +13301,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -13341,7 +13313,7 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -13353,7 +13325,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -13365,7 +13337,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -13377,7 +13349,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -13389,7 +13361,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -13401,7 +13373,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -13413,7 +13385,7 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -13425,7 +13397,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -13437,7 +13409,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -13449,7 +13421,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -13461,7 +13433,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -13473,7 +13445,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -13485,7 +13457,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
-    <row r="25" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -13497,7 +13469,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
-    <row r="26" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -13509,7 +13481,7 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
     </row>
-    <row r="27" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -13521,7 +13493,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
     </row>
-    <row r="28" spans="1:8" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>5</v>
       </c>
@@ -13541,7 +13513,7 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
     </row>
-    <row r="29" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -13553,7 +13525,7 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
     </row>
-    <row r="30" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -13565,7 +13537,7 @@
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -13577,7 +13549,7 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -13589,7 +13561,7 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
-    <row r="33" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -13601,7 +13573,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
     </row>
-    <row r="34" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -13613,7 +13585,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
     </row>
-    <row r="35" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -13625,7 +13597,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
     </row>
-    <row r="36" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -13637,7 +13609,7 @@
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
     </row>
-    <row r="37" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -13649,7 +13621,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -13661,7 +13633,7 @@
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
     </row>
-    <row r="39" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>5</v>
       </c>
@@ -13681,7 +13653,7 @@
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
     </row>
-    <row r="40" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -13693,7 +13665,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
     </row>
-    <row r="41" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
@@ -13705,7 +13677,7 @@
       <c r="G41" s="45"/>
       <c r="H41" s="45"/>
     </row>
-    <row r="42" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -13717,7 +13689,7 @@
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
     </row>
-    <row r="43" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
@@ -13729,7 +13701,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="45"/>
     </row>
-    <row r="44" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -13741,7 +13713,7 @@
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
     </row>
-    <row r="45" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
@@ -13753,7 +13725,7 @@
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
     </row>
-    <row r="46" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
@@ -13765,7 +13737,7 @@
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
     </row>
-    <row r="47" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -13777,7 +13749,7 @@
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
     </row>
-    <row r="48" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -13789,7 +13761,7 @@
       <c r="G48" s="45"/>
       <c r="H48" s="45"/>
     </row>
-    <row r="49" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -13801,7 +13773,7 @@
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
     </row>
-    <row r="50" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -13813,7 +13785,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
     </row>
-    <row r="51" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
@@ -13825,7 +13797,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
     </row>
-    <row r="52" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -13837,7 +13809,7 @@
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
     </row>
-    <row r="53" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
@@ -13849,7 +13821,7 @@
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
     </row>
-    <row r="54" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -13861,7 +13833,7 @@
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
     </row>
-    <row r="55" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -13873,7 +13845,7 @@
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
     </row>
-    <row r="56" spans="1:8" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>5</v>
       </c>
@@ -13893,7 +13865,7 @@
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
     </row>
-    <row r="57" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -13905,7 +13877,7 @@
       <c r="G57" s="45"/>
       <c r="H57" s="45"/>
     </row>
-    <row r="58" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -13917,7 +13889,7 @@
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
     </row>
-    <row r="59" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -13929,7 +13901,7 @@
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
     </row>
-    <row r="60" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -13941,7 +13913,7 @@
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
     </row>
-    <row r="61" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -13953,7 +13925,7 @@
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
     </row>
-    <row r="62" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -13965,7 +13937,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
     </row>
-    <row r="63" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -13977,7 +13949,7 @@
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
     </row>
-    <row r="64" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -13989,7 +13961,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
     </row>
-    <row r="65" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -14001,7 +13973,7 @@
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
     </row>
-    <row r="66" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -14013,7 +13985,7 @@
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
     </row>
-    <row r="67" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -14025,7 +13997,7 @@
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
     </row>
-    <row r="68" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -14037,7 +14009,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="45"/>
     </row>
-    <row r="69" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -14049,7 +14021,7 @@
       <c r="G69" s="45"/>
       <c r="H69" s="45"/>
     </row>
-    <row r="70" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -14061,7 +14033,7 @@
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
     </row>
-    <row r="71" spans="1:8" s="46" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="46" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>5</v>
       </c>
@@ -14081,7 +14053,7 @@
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
     </row>
-    <row r="72" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -14093,7 +14065,7 @@
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
     </row>
-    <row r="73" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -14105,7 +14077,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
     </row>
-    <row r="74" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -14117,7 +14089,7 @@
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
     </row>
-    <row r="75" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -14129,7 +14101,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
     </row>
-    <row r="76" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -14141,7 +14113,7 @@
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
     </row>
-    <row r="77" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -14153,7 +14125,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
     </row>
-    <row r="78" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -14165,7 +14137,7 @@
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
     </row>
-    <row r="79" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -14177,7 +14149,7 @@
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
     </row>
-    <row r="80" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -14189,7 +14161,7 @@
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
     </row>
-    <row r="81" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -14201,7 +14173,7 @@
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
     </row>
-    <row r="82" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -14213,7 +14185,7 @@
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
     </row>
-    <row r="83" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -14225,7 +14197,7 @@
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
     </row>
-    <row r="84" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -14237,7 +14209,7 @@
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
     </row>
-    <row r="85" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -14249,7 +14221,7 @@
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
     </row>
-    <row r="86" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -14261,7 +14233,7 @@
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
     </row>
-    <row r="87" spans="1:8" s="46" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="45" t="s">
         <v>5</v>
       </c>
@@ -14281,7 +14253,7 @@
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
     </row>
-    <row r="88" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -14293,7 +14265,7 @@
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
     </row>
-    <row r="89" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -14305,7 +14277,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
     </row>
-    <row r="90" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -14317,7 +14289,7 @@
       <c r="G90" s="45"/>
       <c r="H90" s="45"/>
     </row>
-    <row r="91" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -14329,7 +14301,7 @@
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
     </row>
-    <row r="92" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -14341,7 +14313,7 @@
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
     </row>
-    <row r="93" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -14353,7 +14325,7 @@
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
     </row>
-    <row r="94" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -14365,7 +14337,7 @@
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
     </row>
-    <row r="95" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -14377,7 +14349,7 @@
       <c r="G95" s="45"/>
       <c r="H95" s="45"/>
     </row>
-    <row r="96" spans="1:8" s="46" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="46" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>5</v>
       </c>
@@ -14397,7 +14369,7 @@
       <c r="G96" s="45"/>
       <c r="H96" s="45"/>
     </row>
-    <row r="97" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -14409,7 +14381,7 @@
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
     </row>
-    <row r="98" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -14421,7 +14393,7 @@
       <c r="G98" s="45"/>
       <c r="H98" s="45"/>
     </row>
-    <row r="99" spans="1:8" s="46" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>5</v>
       </c>
@@ -14441,7 +14413,7 @@
       <c r="G99" s="45"/>
       <c r="H99" s="45"/>
     </row>
-    <row r="100" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -14453,7 +14425,7 @@
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
     </row>
-    <row r="101" spans="1:8" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -14465,7 +14437,7 @@
       <c r="G101" s="45"/>
       <c r="H101" s="45"/>
     </row>
-    <row r="102" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -14477,7 +14449,7 @@
       <c r="G102" s="45"/>
       <c r="H102" s="45"/>
     </row>
-    <row r="103" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -14489,7 +14461,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="45"/>
     </row>
-    <row r="104" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -14501,7 +14473,7 @@
       <c r="G104" s="45"/>
       <c r="H104" s="45"/>
     </row>
-    <row r="105" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -14513,7 +14485,7 @@
       <c r="G105" s="45"/>
       <c r="H105" s="45"/>
     </row>
-    <row r="106" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -14525,7 +14497,7 @@
       <c r="G106" s="45"/>
       <c r="H106" s="45"/>
     </row>
-    <row r="107" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -14537,7 +14509,7 @@
       <c r="G107" s="45"/>
       <c r="H107" s="45"/>
     </row>
-    <row r="108" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -14549,7 +14521,7 @@
       <c r="G108" s="45"/>
       <c r="H108" s="45"/>
     </row>
-    <row r="109" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -14561,7 +14533,7 @@
       <c r="G109" s="45"/>
       <c r="H109" s="45"/>
     </row>
-    <row r="110" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -14573,7 +14545,7 @@
       <c r="G110" s="45"/>
       <c r="H110" s="45"/>
     </row>
-    <row r="111" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -14585,7 +14557,7 @@
       <c r="G111" s="45"/>
       <c r="H111" s="45"/>
     </row>
-    <row r="112" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -14597,7 +14569,7 @@
       <c r="G112" s="45"/>
       <c r="H112" s="45"/>
     </row>
-    <row r="113" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -14609,7 +14581,7 @@
       <c r="G113" s="45"/>
       <c r="H113" s="45"/>
     </row>
-    <row r="114" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -14621,7 +14593,7 @@
       <c r="G114" s="45"/>
       <c r="H114" s="45"/>
     </row>
-    <row r="115" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -14633,7 +14605,7 @@
       <c r="G115" s="45"/>
       <c r="H115" s="45"/>
     </row>
-    <row r="116" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -14645,7 +14617,7 @@
       <c r="G116" s="45"/>
       <c r="H116" s="45"/>
     </row>
-    <row r="117" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -14657,7 +14629,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="45"/>
     </row>
-    <row r="118" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -14669,7 +14641,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="45"/>
     </row>
-    <row r="119" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -14681,7 +14653,7 @@
       <c r="G119" s="45"/>
       <c r="H119" s="45"/>
     </row>
-    <row r="120" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -14693,7 +14665,7 @@
       <c r="G120" s="45"/>
       <c r="H120" s="45"/>
     </row>
-    <row r="121" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -14705,7 +14677,7 @@
       <c r="G121" s="45"/>
       <c r="H121" s="45"/>
     </row>
-    <row r="122" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -14717,7 +14689,7 @@
       <c r="G122" s="45"/>
       <c r="H122" s="45"/>
     </row>
-    <row r="123" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -14729,7 +14701,7 @@
       <c r="G123" s="45"/>
       <c r="H123" s="45"/>
     </row>
-    <row r="124" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -14741,7 +14713,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="45"/>
     </row>
-    <row r="125" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -14753,7 +14725,7 @@
       <c r="G125" s="45"/>
       <c r="H125" s="45"/>
     </row>
-    <row r="126" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -14765,7 +14737,7 @@
       <c r="G126" s="45"/>
       <c r="H126" s="45"/>
     </row>
-    <row r="127" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -14777,7 +14749,7 @@
       <c r="G127" s="45"/>
       <c r="H127" s="45"/>
     </row>
-    <row r="128" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -14789,7 +14761,7 @@
       <c r="G128" s="45"/>
       <c r="H128" s="45"/>
     </row>
-    <row r="129" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -14801,7 +14773,7 @@
       <c r="G129" s="45"/>
       <c r="H129" s="45"/>
     </row>
-    <row r="130" spans="1:8" s="46" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="46" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="45" t="s">
         <v>5</v>
       </c>
@@ -14837,21 +14809,21 @@
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="46" customWidth="1"/>
     <col min="8" max="8" width="21" style="46" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>488</v>
       </c>
@@ -14867,7 +14839,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="97"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -14899,7 +14871,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
@@ -14913,7 +14885,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
@@ -14943,7 +14915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -14963,7 +14935,7 @@
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
@@ -14983,7 +14955,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
@@ -15005,7 +14977,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
@@ -15019,7 +14991,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
@@ -15047,7 +15019,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -15061,7 +15033,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
@@ -15075,7 +15047,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
@@ -15109,25 +15081,25 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="14" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="46" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>471</v>
       </c>
@@ -15145,7 +15117,7 @@
       <c r="K1" s="93"/>
       <c r="L1" s="94"/>
     </row>
-    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15183,7 +15155,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -15217,7 +15189,7 @@
       <c r="K3" s="47"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -15254,21 +15226,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="46" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="46"/>
+    <col min="1" max="1" width="32.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="46" customWidth="1"/>
+    <col min="3" max="10" width="9.21875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>451</v>
       </c>
       <c r="B1" s="97"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -15276,13 +15248,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="47"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -15290,7 +15262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -15298,7 +15270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -15326,19 +15298,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>458</v>
       </c>
@@ -15350,7 +15322,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15376,7 +15348,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -15405,31 +15377,31 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>452</v>
       </c>
@@ -15453,7 +15425,7 @@
       <c r="Q1" s="98"/>
       <c r="R1" s="98"/>
     </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15509,7 +15481,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -15555,7 +15527,7 @@
       <c r="Q3" s="58"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -15601,7 +15573,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -15647,7 +15619,7 @@
       <c r="Q5" s="58"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susingla\Desktop\Demo\MVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\PycharmProjects\newpull\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -7511,13 +7511,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>487</v>
       </c>
@@ -7536,30 +7536,30 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="46" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>486</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="O1" s="93"/>
       <c r="P1" s="94"/>
     </row>
-    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>321</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>321</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>321</v>
       </c>
@@ -7821,7 +7821,7 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7859,23 +7859,23 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="23" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>597</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="I1" s="93"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -7999,7 +7999,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>321</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>321</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -8085,20 +8085,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="46" customWidth="1"/>
     <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>460</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8160,19 +8160,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>461</v>
       </c>
@@ -8193,7 +8193,7 @@
       <c r="P1" s="91"/>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8262,24 +8262,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="46" customWidth="1"/>
     <col min="11" max="11" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>468</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="S1" s="91"/>
       <c r="T1" s="91"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -8574,17 +8574,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>469</v>
       </c>
@@ -8595,7 +8595,7 @@
       <c r="F1" s="91"/>
       <c r="G1" s="91"/>
     </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8710,27 +8710,27 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
     <col min="7" max="7" width="15" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="46" customWidth="1"/>
     <col min="10" max="10" width="16" style="46" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>476</v>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="P1" s="105"/>
       <c r="Q1" s="105"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="47"/>
       <c r="C5" s="30"/>
@@ -8891,7 +8891,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8915,7 +8915,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -9075,21 +9075,21 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="46" customWidth="1"/>
     <col min="8" max="8" width="25" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>462</v>
       </c>
@@ -9109,7 +9109,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
     </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9247,7 +9247,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9308,24 +9308,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="46" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="46" customWidth="1"/>
     <col min="6" max="6" width="18" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="46" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="46" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="46" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>483</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="T1" s="93"/>
       <c r="U1" s="94"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9440,7 +9440,7 @@
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9546,7 +9546,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9610,24 +9610,24 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="46" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="21.08984375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="46" customWidth="1"/>
+    <col min="14" max="16" width="13.77734375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" style="46" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>453</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="R1" s="106"/>
       <c r="S1" s="107"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="R3" s="47"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9790,7 +9790,7 @@
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -9813,7 +9813,7 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -9836,7 +9836,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -9859,7 +9859,7 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -9886,7 +9886,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -9915,7 +9915,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -9950,7 +9950,7 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -9985,7 +9985,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -10012,7 +10012,7 @@
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -10039,7 +10039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -10064,7 +10064,7 @@
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -10091,7 +10091,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -10116,7 +10116,7 @@
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -10143,7 +10143,7 @@
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -10164,7 +10164,7 @@
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
@@ -10191,7 +10191,7 @@
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -10214,7 +10214,7 @@
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +10245,7 @@
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -10309,16 +10309,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>455</v>
       </c>
@@ -10327,7 +10327,7 @@
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="E3" s="45"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="E4" s="45"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
@@ -10421,15 +10421,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
         <v>454</v>
       </c>
@@ -10439,7 +10439,7 @@
       <c r="E1" s="109"/>
       <c r="F1" s="110"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10469,7 +10469,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -10503,7 +10503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
@@ -10519,7 +10519,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -10560,20 +10560,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>482</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
@@ -10733,7 +10733,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -10792,17 +10792,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>250</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>215</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>219</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>199</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>192</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>212</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>224</v>
       </c>
@@ -10922,7 +10922,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>198</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>203</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>217</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>222</v>
       </c>
@@ -10954,153 +10954,153 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11117,21 +11117,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="46"/>
+    <col min="3" max="3" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="46"/>
     <col min="8" max="8" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="9" max="9" width="13.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>477</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -11186,7 +11186,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -11261,32 +11261,32 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="46" customWidth="1"/>
     <col min="9" max="9" width="13" style="46" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="68" customWidth="1"/>
-    <col min="12" max="13" width="20.54296875" style="46"/>
-    <col min="14" max="14" width="20.54296875" style="3"/>
-    <col min="15" max="17" width="20.54296875" style="46"/>
+    <col min="10" max="10" width="16.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.5546875" style="46"/>
+    <col min="14" max="14" width="20.5546875" style="3"/>
+    <col min="15" max="17" width="20.5546875" style="46"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.54296875" style="46"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="20.54296875" style="46"/>
-    <col min="25" max="25" width="23.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.54296875" style="46"/>
+    <col min="19" max="21" width="20.5546875" style="46"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="20.5546875" style="46"/>
+    <col min="25" max="25" width="23.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.5546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>602</v>
       </c>
@@ -11314,7 +11314,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11604,39 +11604,39 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="68" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="46" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="46"/>
+    <col min="27" max="27" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>603</v>
       </c>
@@ -11664,7 +11664,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11766,7 +11766,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11955,37 +11955,37 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="25" width="14.54296875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="46"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="25" width="14.5546875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>604</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="W1" s="93"/>
       <c r="X1" s="94"/>
     </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
@@ -12114,7 +12114,7 @@
       <c r="W3" s="71"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="60"/>
       <c r="C5" s="70"/>
@@ -12231,20 +12231,20 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>344</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>346</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>343</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>347</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>332</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
@@ -12423,7 +12423,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47" t="s">
@@ -12439,7 +12439,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
@@ -12455,7 +12455,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47" t="s">
@@ -12471,7 +12471,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47" t="s">
@@ -12485,7 +12485,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47" t="s">
@@ -12499,7 +12499,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47" t="s">
@@ -12513,472 +12513,472 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="47" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I16" s="47" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="47" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="47" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="47" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="47" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" s="47" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="47" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I26" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I27" s="47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I29" s="47" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I30" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I31" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I32" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="47" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="47" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="47" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="47" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="47" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="47" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="47" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="47" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="47" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="47" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I61" s="47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I62" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I63" s="47" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I64" s="47" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="47" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="47" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="47" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="47" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="47" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="47" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="47" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="47" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="47" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="47" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="47" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="47" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="47" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="47" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="47" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="47" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="47" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="47" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="47" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="47" t="s">
         <v>594</v>
       </c>
@@ -12994,22 +12994,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>456</v>
       </c>
@@ -13018,7 +13018,7 @@
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
@@ -13061,7 +13061,7 @@
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
@@ -13100,7 +13100,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -13112,37 +13112,6 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="56"/>
-      <c r="C9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="56"/>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="56"/>
-      <c r="C12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13164,18 +13133,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="46" customWidth="1"/>
     <col min="4" max="4" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>457</v>
       </c>
@@ -13187,7 +13156,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13213,7 +13182,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="46" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
@@ -13233,7 +13202,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -13245,7 +13214,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -13257,7 +13226,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -13269,7 +13238,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -13281,7 +13250,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -13293,7 +13262,7 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -13305,7 +13274,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -13317,7 +13286,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -13329,7 +13298,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -13341,7 +13310,7 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -13353,7 +13322,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -13365,7 +13334,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -13377,7 +13346,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -13389,7 +13358,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -13401,7 +13370,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -13413,7 +13382,7 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -13425,7 +13394,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -13437,7 +13406,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -13449,7 +13418,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -13461,7 +13430,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -13473,7 +13442,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -13485,7 +13454,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
-    <row r="25" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -13497,7 +13466,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
-    <row r="26" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -13509,7 +13478,7 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
     </row>
-    <row r="27" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -13521,7 +13490,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
     </row>
-    <row r="28" spans="1:8" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>5</v>
       </c>
@@ -13541,7 +13510,7 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
     </row>
-    <row r="29" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -13553,7 +13522,7 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
     </row>
-    <row r="30" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -13565,7 +13534,7 @@
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -13577,7 +13546,7 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -13589,7 +13558,7 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
-    <row r="33" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -13601,7 +13570,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
     </row>
-    <row r="34" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -13613,7 +13582,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
     </row>
-    <row r="35" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -13625,7 +13594,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
     </row>
-    <row r="36" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -13637,7 +13606,7 @@
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
     </row>
-    <row r="37" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -13649,7 +13618,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -13661,7 +13630,7 @@
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
     </row>
-    <row r="39" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>5</v>
       </c>
@@ -13681,7 +13650,7 @@
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
     </row>
-    <row r="40" spans="1:8" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -13693,7 +13662,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
     </row>
-    <row r="41" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
@@ -13705,7 +13674,7 @@
       <c r="G41" s="45"/>
       <c r="H41" s="45"/>
     </row>
-    <row r="42" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -13717,7 +13686,7 @@
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
     </row>
-    <row r="43" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
@@ -13729,7 +13698,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="45"/>
     </row>
-    <row r="44" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -13741,7 +13710,7 @@
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
     </row>
-    <row r="45" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
@@ -13753,7 +13722,7 @@
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
     </row>
-    <row r="46" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
@@ -13765,7 +13734,7 @@
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
     </row>
-    <row r="47" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -13777,7 +13746,7 @@
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
     </row>
-    <row r="48" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -13789,7 +13758,7 @@
       <c r="G48" s="45"/>
       <c r="H48" s="45"/>
     </row>
-    <row r="49" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -13801,7 +13770,7 @@
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
     </row>
-    <row r="50" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -13813,7 +13782,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
     </row>
-    <row r="51" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
@@ -13825,7 +13794,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
     </row>
-    <row r="52" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -13837,7 +13806,7 @@
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
     </row>
-    <row r="53" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
@@ -13849,7 +13818,7 @@
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
     </row>
-    <row r="54" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -13861,7 +13830,7 @@
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
     </row>
-    <row r="55" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -13873,7 +13842,7 @@
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
     </row>
-    <row r="56" spans="1:8" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>5</v>
       </c>
@@ -13893,7 +13862,7 @@
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
     </row>
-    <row r="57" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -13905,7 +13874,7 @@
       <c r="G57" s="45"/>
       <c r="H57" s="45"/>
     </row>
-    <row r="58" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -13917,7 +13886,7 @@
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
     </row>
-    <row r="59" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -13929,7 +13898,7 @@
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
     </row>
-    <row r="60" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -13941,7 +13910,7 @@
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
     </row>
-    <row r="61" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -13953,7 +13922,7 @@
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
     </row>
-    <row r="62" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -13965,7 +13934,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
     </row>
-    <row r="63" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -13977,7 +13946,7 @@
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
     </row>
-    <row r="64" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -13989,7 +13958,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
     </row>
-    <row r="65" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -14001,7 +13970,7 @@
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
     </row>
-    <row r="66" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -14013,7 +13982,7 @@
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
     </row>
-    <row r="67" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -14025,7 +13994,7 @@
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
     </row>
-    <row r="68" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -14037,7 +14006,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="45"/>
     </row>
-    <row r="69" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -14049,7 +14018,7 @@
       <c r="G69" s="45"/>
       <c r="H69" s="45"/>
     </row>
-    <row r="70" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -14061,7 +14030,7 @@
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
     </row>
-    <row r="71" spans="1:8" s="46" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="46" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>5</v>
       </c>
@@ -14081,7 +14050,7 @@
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
     </row>
-    <row r="72" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -14093,7 +14062,7 @@
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
     </row>
-    <row r="73" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -14105,7 +14074,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
     </row>
-    <row r="74" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -14117,7 +14086,7 @@
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
     </row>
-    <row r="75" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -14129,7 +14098,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
     </row>
-    <row r="76" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -14141,7 +14110,7 @@
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
     </row>
-    <row r="77" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -14153,7 +14122,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
     </row>
-    <row r="78" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -14165,7 +14134,7 @@
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
     </row>
-    <row r="79" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -14177,7 +14146,7 @@
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
     </row>
-    <row r="80" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -14189,7 +14158,7 @@
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
     </row>
-    <row r="81" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -14201,7 +14170,7 @@
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
     </row>
-    <row r="82" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -14213,7 +14182,7 @@
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
     </row>
-    <row r="83" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -14225,7 +14194,7 @@
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
     </row>
-    <row r="84" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -14237,7 +14206,7 @@
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
     </row>
-    <row r="85" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -14249,7 +14218,7 @@
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
     </row>
-    <row r="86" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -14261,7 +14230,7 @@
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
     </row>
-    <row r="87" spans="1:8" s="46" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="45" t="s">
         <v>5</v>
       </c>
@@ -14281,7 +14250,7 @@
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
     </row>
-    <row r="88" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -14293,7 +14262,7 @@
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
     </row>
-    <row r="89" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -14305,7 +14274,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
     </row>
-    <row r="90" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -14317,7 +14286,7 @@
       <c r="G90" s="45"/>
       <c r="H90" s="45"/>
     </row>
-    <row r="91" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -14329,7 +14298,7 @@
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
     </row>
-    <row r="92" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -14341,7 +14310,7 @@
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
     </row>
-    <row r="93" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -14353,7 +14322,7 @@
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
     </row>
-    <row r="94" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -14365,7 +14334,7 @@
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
     </row>
-    <row r="95" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -14377,7 +14346,7 @@
       <c r="G95" s="45"/>
       <c r="H95" s="45"/>
     </row>
-    <row r="96" spans="1:8" s="46" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="46" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>5</v>
       </c>
@@ -14397,7 +14366,7 @@
       <c r="G96" s="45"/>
       <c r="H96" s="45"/>
     </row>
-    <row r="97" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -14409,7 +14378,7 @@
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
     </row>
-    <row r="98" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -14421,7 +14390,7 @@
       <c r="G98" s="45"/>
       <c r="H98" s="45"/>
     </row>
-    <row r="99" spans="1:8" s="46" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>5</v>
       </c>
@@ -14441,7 +14410,7 @@
       <c r="G99" s="45"/>
       <c r="H99" s="45"/>
     </row>
-    <row r="100" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -14453,7 +14422,7 @@
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
     </row>
-    <row r="101" spans="1:8" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -14465,7 +14434,7 @@
       <c r="G101" s="45"/>
       <c r="H101" s="45"/>
     </row>
-    <row r="102" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -14477,7 +14446,7 @@
       <c r="G102" s="45"/>
       <c r="H102" s="45"/>
     </row>
-    <row r="103" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -14489,7 +14458,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="45"/>
     </row>
-    <row r="104" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -14501,7 +14470,7 @@
       <c r="G104" s="45"/>
       <c r="H104" s="45"/>
     </row>
-    <row r="105" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -14513,7 +14482,7 @@
       <c r="G105" s="45"/>
       <c r="H105" s="45"/>
     </row>
-    <row r="106" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -14525,7 +14494,7 @@
       <c r="G106" s="45"/>
       <c r="H106" s="45"/>
     </row>
-    <row r="107" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -14537,7 +14506,7 @@
       <c r="G107" s="45"/>
       <c r="H107" s="45"/>
     </row>
-    <row r="108" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -14549,7 +14518,7 @@
       <c r="G108" s="45"/>
       <c r="H108" s="45"/>
     </row>
-    <row r="109" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -14561,7 +14530,7 @@
       <c r="G109" s="45"/>
       <c r="H109" s="45"/>
     </row>
-    <row r="110" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -14573,7 +14542,7 @@
       <c r="G110" s="45"/>
       <c r="H110" s="45"/>
     </row>
-    <row r="111" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -14585,7 +14554,7 @@
       <c r="G111" s="45"/>
       <c r="H111" s="45"/>
     </row>
-    <row r="112" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -14597,7 +14566,7 @@
       <c r="G112" s="45"/>
       <c r="H112" s="45"/>
     </row>
-    <row r="113" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -14609,7 +14578,7 @@
       <c r="G113" s="45"/>
       <c r="H113" s="45"/>
     </row>
-    <row r="114" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -14621,7 +14590,7 @@
       <c r="G114" s="45"/>
       <c r="H114" s="45"/>
     </row>
-    <row r="115" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -14633,7 +14602,7 @@
       <c r="G115" s="45"/>
       <c r="H115" s="45"/>
     </row>
-    <row r="116" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -14645,7 +14614,7 @@
       <c r="G116" s="45"/>
       <c r="H116" s="45"/>
     </row>
-    <row r="117" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -14657,7 +14626,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="45"/>
     </row>
-    <row r="118" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -14669,7 +14638,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="45"/>
     </row>
-    <row r="119" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -14681,7 +14650,7 @@
       <c r="G119" s="45"/>
       <c r="H119" s="45"/>
     </row>
-    <row r="120" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -14693,7 +14662,7 @@
       <c r="G120" s="45"/>
       <c r="H120" s="45"/>
     </row>
-    <row r="121" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -14705,7 +14674,7 @@
       <c r="G121" s="45"/>
       <c r="H121" s="45"/>
     </row>
-    <row r="122" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -14717,7 +14686,7 @@
       <c r="G122" s="45"/>
       <c r="H122" s="45"/>
     </row>
-    <row r="123" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -14729,7 +14698,7 @@
       <c r="G123" s="45"/>
       <c r="H123" s="45"/>
     </row>
-    <row r="124" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -14741,7 +14710,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="45"/>
     </row>
-    <row r="125" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -14753,7 +14722,7 @@
       <c r="G125" s="45"/>
       <c r="H125" s="45"/>
     </row>
-    <row r="126" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -14765,7 +14734,7 @@
       <c r="G126" s="45"/>
       <c r="H126" s="45"/>
     </row>
-    <row r="127" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -14777,7 +14746,7 @@
       <c r="G127" s="45"/>
       <c r="H127" s="45"/>
     </row>
-    <row r="128" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -14789,7 +14758,7 @@
       <c r="G128" s="45"/>
       <c r="H128" s="45"/>
     </row>
-    <row r="129" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -14801,7 +14770,7 @@
       <c r="G129" s="45"/>
       <c r="H129" s="45"/>
     </row>
-    <row r="130" spans="1:8" s="46" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="46" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="45" t="s">
         <v>5</v>
       </c>
@@ -14837,21 +14806,21 @@
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="46" customWidth="1"/>
     <col min="8" max="8" width="21" style="46" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>488</v>
       </c>
@@ -14867,7 +14836,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="97"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -14899,7 +14868,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
@@ -14913,7 +14882,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
@@ -14943,7 +14912,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -14963,7 +14932,7 @@
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
@@ -14983,7 +14952,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
@@ -15005,7 +14974,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
@@ -15019,7 +14988,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
@@ -15047,7 +15016,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -15061,7 +15030,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
@@ -15075,7 +15044,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
@@ -15109,25 +15078,25 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="14" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="46" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>471</v>
       </c>
@@ -15145,7 +15114,7 @@
       <c r="K1" s="93"/>
       <c r="L1" s="94"/>
     </row>
-    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15183,7 +15152,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -15217,7 +15186,7 @@
       <c r="K3" s="47"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -15254,21 +15223,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="46" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="46"/>
+    <col min="1" max="1" width="32.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="46" customWidth="1"/>
+    <col min="3" max="10" width="9.21875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>451</v>
       </c>
       <c r="B1" s="97"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -15276,13 +15245,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="47"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -15290,7 +15259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -15298,7 +15267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -15326,19 +15295,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>458</v>
       </c>
@@ -15350,7 +15319,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15376,7 +15345,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -15408,28 +15377,28 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>452</v>
       </c>
@@ -15453,7 +15422,7 @@
       <c r="Q1" s="98"/>
       <c r="R1" s="98"/>
     </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15509,7 +15478,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -15555,7 +15524,7 @@
       <c r="Q3" s="58"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -15601,7 +15570,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -15647,7 +15616,7 @@
       <c r="Q5" s="58"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="820">
   <si>
     <t>Region</t>
   </si>
@@ -5844,9 +5844,6 @@
   </si>
   <si>
     <t>OSN egress rule for oci-phx-objectstorage.</t>
-  </si>
-  <si>
-    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
   </si>
   <si>
     <t>NETWORK_SECURITY_GROUP</t>
@@ -7226,7 +7223,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7654,7 +7651,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
     </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
@@ -7698,11 +7695,9 @@
         <v>784</v>
       </c>
       <c r="S10" s="38"/>
-      <c r="T10" s="38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>5</v>
       </c>
@@ -7725,7 +7720,7 @@
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>759</v>
@@ -7743,14 +7738,12 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S11" s="38"/>
-      <c r="T11" s="38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>5</v>
       </c>
@@ -7773,7 +7766,7 @@
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>766</v>
@@ -7791,12 +7784,10 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S12" s="38"/>
-      <c r="T12" s="38" t="s">
-        <v>785</v>
-      </c>
+      <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
@@ -7839,7 +7830,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -7913,7 +7904,7 @@
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>757</v>
@@ -7931,7 +7922,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -7959,7 +7950,7 @@
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>766</v>
@@ -7977,7 +7968,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -8451,7 +8442,7 @@
         <v>359</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
@@ -8501,7 +8492,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
@@ -8545,7 +8536,7 @@
         <v>359</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
@@ -8589,7 +8580,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
@@ -8715,7 +8706,7 @@
         <v>333</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -8747,7 +8738,7 @@
         <v>341</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -12199,10 +12190,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -12283,16 +12274,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>411</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>800</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>801</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -12516,7 +12507,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -12528,7 +12519,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -12636,7 +12627,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -12788,7 +12779,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -13080,7 +13071,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -13212,7 +13203,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -13424,7 +13415,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -13552,7 +13543,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -13563,16 +13554,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C105" s="38" t="s">
         <v>411</v>
       </c>
       <c r="D105" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="E105" s="38" t="s">
         <v>806</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>807</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -14064,16 +14055,16 @@
         <v>411</v>
       </c>
       <c r="C3" s="69" t="s">
+        <v>814</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>816</v>
-      </c>
       <c r="E3" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>809</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>810</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -14083,7 +14074,7 @@
         <v>411</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -14094,16 +14085,16 @@
         <v>411</v>
       </c>
       <c r="C4" s="69" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>816</v>
-      </c>
       <c r="E4" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>812</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>813</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -14113,7 +14104,7 @@
         <v>411</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -14753,7 +14744,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -459,9 +459,6 @@
     <t>FSS1</t>
   </si>
   <si>
-    <t>/fss1/</t>
-  </si>
-  <si>
     <t>20.20.20.20/32</t>
   </si>
   <si>
@@ -477,18 +474,12 @@
     <t>FSS2</t>
   </si>
   <si>
-    <t>/fss2/</t>
-  </si>
-  <si>
     <t>MT3</t>
   </si>
   <si>
     <t>FSS3</t>
   </si>
   <si>
-    <t>/fss3/</t>
-  </si>
-  <si>
     <t>11.0.0.0/8</t>
   </si>
   <si>
@@ -502,9 +493,6 @@
   </si>
   <si>
     <t>FSS4</t>
-  </si>
-  <si>
-    <t>/fss4/</t>
   </si>
   <si>
     <t>LBR Name</t>
@@ -5933,9 +5921,6 @@
     <t>${oci.datetime}</t>
   </si>
   <si>
-    <t>Oracle Tags</t>
-  </si>
-  <si>
     <t>CIS compliant tag namespace</t>
   </si>
   <si>
@@ -5949,6 +5934,21 @@
   </si>
   <si>
     <t>vcn01.oraclevcn.com</t>
+  </si>
+  <si>
+    <t>OracleTags</t>
+  </si>
+  <si>
+    <t>/fss1</t>
+  </si>
+  <si>
+    <t>/fss2</t>
+  </si>
+  <si>
+    <t>/fss3</t>
+  </si>
+  <si>
+    <t>/fss4</t>
   </si>
 </sst>
 </file>
@@ -7035,7 +7035,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -7067,7 +7067,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7104,7 +7104,7 @@
         <v>64</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7138,7 +7138,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7207,7 +7207,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7245,7 +7245,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7323,10 +7323,10 @@
         <v>64</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="T2" s="59" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -7334,19 +7334,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>82</v>
@@ -7354,10 +7354,10 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -7370,7 +7370,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -7380,25 +7380,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>757</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>761</v>
-      </c>
       <c r="F4" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>31</v>
@@ -7416,7 +7416,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -7426,28 +7426,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>757</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>761</v>
-      </c>
       <c r="F5" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -7462,7 +7462,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -7472,19 +7472,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>82</v>
@@ -7492,10 +7492,10 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -7508,7 +7508,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -7518,28 +7518,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -7554,7 +7554,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -7564,28 +7564,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -7600,7 +7600,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -7610,19 +7610,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>82</v>
@@ -7630,10 +7630,10 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -7646,7 +7646,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -7656,19 +7656,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>82</v>
@@ -7676,10 +7676,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -7692,7 +7692,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -7702,28 +7702,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -7738,7 +7738,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -7748,28 +7748,28 @@
         <v>5</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -7784,7 +7784,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -7794,19 +7794,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>82</v>
@@ -7814,10 +7814,10 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -7830,7 +7830,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -7840,19 +7840,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>82</v>
@@ -7860,10 +7860,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -7876,7 +7876,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -7886,28 +7886,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -7922,7 +7922,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -7932,28 +7932,28 @@
         <v>5</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -7968,7 +7968,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -8002,13 +8002,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>80</v>
@@ -8035,7 +8035,7 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="64"/>
       <c r="T18" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8043,28 +8043,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G19" s="63" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
@@ -8085,13 +8085,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>80</v>
@@ -8123,13 +8123,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>85</v>
@@ -8144,7 +8144,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -8189,7 +8189,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -8218,7 +8218,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8237,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>91</v>
@@ -8252,7 +8252,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8260,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>93</v>
@@ -8281,7 +8281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>95</v>
@@ -8293,7 +8293,7 @@
         <v>92</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G6" s="40"/>
     </row>
@@ -8335,7 +8335,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -8345,7 +8345,7 @@
       <c r="G1" s="79"/>
       <c r="H1" s="80"/>
       <c r="I1" s="71" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J1" s="72"/>
       <c r="K1" s="72"/>
@@ -8366,7 +8366,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>90</v>
@@ -8381,7 +8381,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>89</v>
@@ -8393,7 +8393,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>101</v>
@@ -8402,7 +8402,7 @@
         <v>102</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8430,47 +8430,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>107</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>95</v>
       </c>
       <c r="P4" s="63" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
@@ -8480,35 +8480,35 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="63" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M5" s="63"/>
       <c r="N5" s="63"/>
@@ -8524,26 +8524,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="63" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>109</v>
@@ -8552,11 +8552,11 @@
         <v>107</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="63" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
@@ -8568,26 +8568,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="63" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>109</v>
@@ -8596,11 +8596,11 @@
         <v>107</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M7" s="63"/>
       <c r="N7" s="63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
@@ -8640,7 +8640,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -8678,10 +8678,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8703,10 +8703,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -8715,19 +8715,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8735,10 +8735,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -8747,13 +8747,13 @@
         <v>59</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
@@ -8771,8 +8771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8797,7 +8797,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -8807,7 +8807,7 @@
       <c r="G1" s="82"/>
       <c r="H1" s="83"/>
       <c r="I1" s="84" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
@@ -8868,7 +8868,7 @@
         <v>101</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -8897,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>94</v>
@@ -8906,7 +8906,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
@@ -8916,7 +8916,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>130</v>
+        <v>816</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -8925,10 +8925,10 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="38" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -8941,13 +8941,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -8965,13 +8965,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>130</v>
+        <v>816</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>134</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -8985,7 +8985,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>94</v>
@@ -8994,15 +8994,15 @@
         <v>127</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>136</v>
+        <v>817</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9018,37 +9018,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>139</v>
+        <v>818</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="40" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="40"/>
     </row>
@@ -9057,30 +9057,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="K9" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -9094,24 +9094,24 @@
         <v>5</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>145</v>
+        <v>819</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -9156,7 +9156,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9182,46 +9182,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="N2" s="21" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9249,43 +9249,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F4" s="40" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9298,15 +9298,15 @@
       <c r="G5" s="40"/>
       <c r="H5" s="38"/>
       <c r="I5" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
@@ -9317,40 +9317,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F6" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -9392,7 +9392,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -9423,61 +9423,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="K2" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="L2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="Q2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="R2" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -9510,44 +9510,44 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I4" s="40">
         <v>80</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K4" s="40">
         <v>10000</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N4" s="40" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P4" s="40" t="s">
         <v>24</v>
@@ -9556,10 +9556,10 @@
         <v>104</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="S4" s="58" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T4" s="40">
         <v>2</v>
@@ -9573,19 +9573,19 @@
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I5" s="40">
         <v>443</v>
@@ -9593,10 +9593,10 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N5" s="40" t="b">
         <v>1</v>
@@ -9616,29 +9616,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I6" s="40">
         <v>80</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40" t="s">
@@ -9694,7 +9694,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -9705,7 +9705,7 @@
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
       <c r="J1" s="74" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
@@ -9722,55 +9722,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>28</v>
@@ -9804,16 +9804,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -9838,7 +9838,7 @@
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -9861,7 +9861,7 @@
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -9884,7 +9884,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -9907,7 +9907,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -9929,7 +9929,7 @@
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40" t="b">
@@ -9956,19 +9956,19 @@
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -9985,27 +9985,27 @@
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O11" s="40"/>
       <c r="P11" s="40">
@@ -10020,27 +10020,27 @@
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O12" s="40"/>
       <c r="P12" s="40">
@@ -10055,7 +10055,7 @@
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -10065,14 +10065,14 @@
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
@@ -10082,7 +10082,7 @@
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -10092,7 +10092,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -10101,7 +10101,7 @@
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
       <c r="S14" s="40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -10109,7 +10109,7 @@
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -10119,7 +10119,7 @@
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -10134,7 +10134,7 @@
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -10144,7 +10144,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
@@ -10153,7 +10153,7 @@
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
       <c r="S16" s="40" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -10161,7 +10161,7 @@
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -10171,7 +10171,7 @@
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
@@ -10186,7 +10186,7 @@
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -10196,14 +10196,14 @@
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
@@ -10233,13 +10233,13 @@
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -10262,7 +10262,7 @@
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -10284,16 +10284,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -10316,7 +10316,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -10382,7 +10382,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10403,7 +10403,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10411,13 +10411,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E3" s="40"/>
     </row>
@@ -10426,13 +10426,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E4" s="40"/>
     </row>
@@ -10441,13 +10441,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E5" s="40"/>
     </row>
@@ -10456,13 +10456,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E6" s="40"/>
     </row>
@@ -10480,10 +10480,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -10493,13 +10493,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E9" s="63"/>
     </row>
@@ -10508,13 +10508,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E10" s="63"/>
     </row>
@@ -10523,10 +10523,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -10536,13 +10536,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>362</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>366</v>
       </c>
       <c r="E12" s="63"/>
     </row>
@@ -10551,13 +10551,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E13" s="63"/>
     </row>
@@ -10566,13 +10566,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E14" s="63"/>
     </row>
@@ -10581,16 +10581,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -10620,7 +10620,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -10633,19 +10633,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -10663,19 +10663,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -10683,29 +10683,29 @@
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -10713,19 +10713,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -10764,7 +10764,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10787,49 +10787,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="L2" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="M2" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -10857,35 +10857,35 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O4" s="40">
         <v>2</v>
@@ -10898,21 +10898,21 @@
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -10927,31 +10927,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="40">
         <v>80</v>
@@ -10993,36 +10993,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -11033,16 +11033,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E3" s="31">
         <v>302</v>
@@ -11053,16 +11053,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E4" s="31">
         <v>303</v>
@@ -11073,13 +11073,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="31">
@@ -11091,10 +11091,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="31">
@@ -11104,189 +11104,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="31" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11321,31 +11321,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
@@ -11353,709 +11353,709 @@
         <v>106</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>335</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="I9" s="40" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="I13" s="40" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="40" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="40" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="40" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="40" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="40" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="40" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="40" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="40" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="40" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="40" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="40" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="40" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="40" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="40" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="40" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="40" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="40" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="40" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="40" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="40" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="40" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="40" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="40" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="40" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="40" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="40" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="40" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="40" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="40" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="40" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="40" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="40" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="40" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="40" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="40" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="40" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="40" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="40" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="40" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="40" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="40" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="40" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="40" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="40" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="40" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="40" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="40" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="40" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="40" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="40" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="40" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="40" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="40" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="40" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="40" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="40" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="40" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="40" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="40" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="40" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="40" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="40" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="40" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="40" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="40" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="40" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="40" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="40" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="40" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="40" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="40" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="40" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="40" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="40" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="40" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="40" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="40" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="40" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="40" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="40" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -12083,7 +12083,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -12101,10 +12101,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -12112,10 +12112,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -12125,10 +12125,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -12138,10 +12138,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -12151,10 +12151,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -12164,10 +12164,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -12177,10 +12177,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -12190,10 +12190,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -12233,7 +12233,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -12266,7 +12266,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -12274,16 +12274,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -12294,16 +12294,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -12315,7 +12315,7 @@
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -12327,7 +12327,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -12339,7 +12339,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -12351,7 +12351,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -12363,7 +12363,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -12375,7 +12375,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -12387,7 +12387,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -12399,7 +12399,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -12411,7 +12411,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -12423,7 +12423,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -12435,7 +12435,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -12447,7 +12447,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -12459,7 +12459,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -12471,7 +12471,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -12483,7 +12483,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -12495,7 +12495,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -12507,7 +12507,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -12519,7 +12519,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -12531,7 +12531,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -12543,7 +12543,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -12555,7 +12555,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -12567,7 +12567,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -12579,7 +12579,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -12591,7 +12591,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -12603,7 +12603,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -12615,7 +12615,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -12627,7 +12627,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -12638,16 +12638,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -12659,7 +12659,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -12671,7 +12671,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -12683,7 +12683,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -12695,7 +12695,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -12707,7 +12707,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -12719,7 +12719,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -12731,7 +12731,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -12743,7 +12743,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -12755,7 +12755,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -12767,7 +12767,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -12779,7 +12779,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -12790,16 +12790,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -12811,7 +12811,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -12823,7 +12823,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -12835,7 +12835,7 @@
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -12847,7 +12847,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -12859,7 +12859,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -12871,7 +12871,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -12883,7 +12883,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -12895,7 +12895,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -12907,7 +12907,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -12919,7 +12919,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -12931,7 +12931,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -12943,7 +12943,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -12955,7 +12955,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -12967,7 +12967,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -12979,7 +12979,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -12991,7 +12991,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -13002,16 +13002,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -13023,7 +13023,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -13035,7 +13035,7 @@
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -13047,7 +13047,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -13059,7 +13059,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -13071,7 +13071,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -13083,7 +13083,7 @@
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -13095,7 +13095,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -13107,7 +13107,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -13119,7 +13119,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -13131,7 +13131,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -13143,7 +13143,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -13155,7 +13155,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -13167,7 +13167,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -13179,7 +13179,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -13191,7 +13191,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -13203,7 +13203,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -13214,16 +13214,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -13235,7 +13235,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -13247,7 +13247,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -13259,7 +13259,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -13271,7 +13271,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -13283,7 +13283,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -13295,7 +13295,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -13307,7 +13307,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -13319,7 +13319,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -13331,7 +13331,7 @@
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -13343,7 +13343,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -13355,7 +13355,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -13367,7 +13367,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -13379,7 +13379,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -13391,7 +13391,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -13403,7 +13403,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -13415,7 +13415,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -13426,16 +13426,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -13447,7 +13447,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -13459,7 +13459,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -13471,7 +13471,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -13483,7 +13483,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -13495,7 +13495,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -13507,7 +13507,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -13519,7 +13519,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -13531,7 +13531,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -13543,7 +13543,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -13554,16 +13554,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -13574,16 +13574,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E106" s="38" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -13595,7 +13595,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -13607,7 +13607,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -13619,7 +13619,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -13631,7 +13631,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -13643,7 +13643,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -13655,7 +13655,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -13667,7 +13667,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -13679,7 +13679,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -13691,7 +13691,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -13703,7 +13703,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -13715,7 +13715,7 @@
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -13727,7 +13727,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -13739,7 +13739,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -13751,7 +13751,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -13763,7 +13763,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -13775,7 +13775,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -13787,7 +13787,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -13799,7 +13799,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -13811,7 +13811,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -13823,7 +13823,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -13835,7 +13835,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -13847,7 +13847,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -13859,7 +13859,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -13871,7 +13871,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -13883,7 +13883,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -13895,7 +13895,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -13907,7 +13907,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -13919,7 +13919,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -13931,7 +13931,7 @@
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -13943,7 +13943,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -13954,16 +13954,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D137" s="38" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E137" s="38" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -13982,7 +13982,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14001,7 +14001,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14009,7 +14009,7 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
       <c r="G1" s="74" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
@@ -14023,28 +14023,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="H2" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="I2" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>306</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14052,29 +14052,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -14082,29 +14082,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -14126,29 +14126,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -14156,26 +14156,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D7" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="63" t="s">
         <v>312</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>316</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J7" s="63"/>
     </row>
@@ -14184,14 +14184,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63" t="b">
@@ -14206,16 +14206,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63" t="b">
@@ -14230,16 +14230,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63" t="b">
@@ -14254,27 +14254,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G11" s="63" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -14282,14 +14282,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="63" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63" t="b">
@@ -14304,14 +14304,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="63" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63" t="b">
@@ -14326,14 +14326,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="63" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="63" t="b">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J14" s="63"/>
     </row>
@@ -14380,7 +14380,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14388,7 +14388,7 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
       <c r="G1" s="71" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
@@ -14431,18 +14431,18 @@
         <v>18</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
@@ -14463,7 +14463,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -14489,7 +14489,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>19</v>
@@ -14498,7 +14498,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>24</v>
@@ -14510,16 +14510,16 @@
         <v>21</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J5" s="63" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -14527,10 +14527,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>23</v>
@@ -14548,7 +14548,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>25</v>
@@ -14561,10 +14561,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>26</v>
@@ -14582,7 +14582,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>25</v>
@@ -14618,7 +14618,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B1" s="76"/>
     </row>
@@ -14691,7 +14691,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -14724,18 +14724,18 @@
         <v>37</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>38</v>
@@ -14744,7 +14744,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -14766,7 +14766,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>19</v>
@@ -14781,10 +14781,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14792,10 +14792,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>38</v>
@@ -14814,13 +14814,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>41</v>
@@ -14871,7 +14871,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14881,7 +14881,7 @@
       <c r="G1" s="72"/>
       <c r="H1" s="73"/>
       <c r="I1" s="77" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
@@ -14946,21 +14946,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>53</v>
@@ -14969,7 +14969,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>38</v>
@@ -14999,19 +14999,19 @@
     </row>
     <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>54</v>
@@ -15047,19 +15047,19 @@
     </row>
     <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>769</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>773</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>777</v>
-      </c>
       <c r="E5" s="40" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>54</v>
@@ -15076,7 +15076,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M5" s="67" t="s">
         <v>21</v>
@@ -15119,13 +15119,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>53</v>
@@ -15147,7 +15147,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="66" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M7" s="66" t="s">
         <v>21</v>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -15171,16 +15171,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>54</v>
@@ -15219,13 +15219,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>58</v>
@@ -15267,16 +15267,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>54</v>
@@ -15285,7 +15285,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63" t="s">
@@ -15317,16 +15317,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>54</v>
@@ -15335,11 +15335,11 @@
         <v>60</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I11" s="63"/>
       <c r="J11" s="63" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K11" s="63" t="s">
         <v>24</v>
@@ -15367,16 +15367,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>54</v>
@@ -15385,17 +15385,17 @@
         <v>60</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I12" s="63"/>
       <c r="J12" s="63" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K12" s="63" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="66" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M12" s="66" t="s">
         <v>24</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E68B8-6B4C-194F-AB5A-87A661150C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="819">
   <si>
     <t>Region</t>
   </si>
@@ -610,9 +611,6 @@
   </si>
   <si>
     <t>BS1-2</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
   </si>
   <si>
     <t>Backend Server</t>
@@ -5954,7 +5952,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6810,6 +6808,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6845,6 +6860,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7020,22 +7052,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="167.08984375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="167.1640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7045,29 +7077,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="39" customWidth="1"/>
     <col min="5" max="5" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7078,7 +7110,7 @@
       <c r="H1" s="70"/>
       <c r="I1" s="70"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7104,7 +7136,7 @@
         <v>64</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -7117,28 +7149,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="39" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7157,7 +7189,7 @@
       <c r="P1" s="70"/>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7207,7 +7239,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -7219,33 +7251,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7267,7 +7299,7 @@
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7323,30 +7355,30 @@
         <v>64</v>
       </c>
       <c r="S2" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="T2" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="T2" s="59" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>753</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>754</v>
-      </c>
       <c r="F3" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>82</v>
@@ -7354,10 +7386,10 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -7370,35 +7402,35 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>31</v>
@@ -7416,38 +7448,38 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
     </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -7462,29 +7494,29 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
     </row>
-    <row r="6" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>82</v>
@@ -7492,10 +7524,10 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -7508,38 +7540,38 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
     </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -7554,38 +7586,38 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
     </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -7600,29 +7632,29 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>82</v>
@@ -7630,10 +7662,10 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -7646,29 +7678,29 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
     </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>82</v>
@@ -7676,10 +7708,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -7692,38 +7724,38 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -7738,38 +7770,38 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -7784,29 +7816,29 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>82</v>
@@ -7814,10 +7846,10 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -7830,29 +7862,29 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>82</v>
@@ -7860,10 +7892,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -7876,38 +7908,38 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -7922,38 +7954,38 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -7968,12 +8000,12 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
@@ -7997,18 +8029,18 @@
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
     </row>
-    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>80</v>
@@ -8035,36 +8067,36 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="64"/>
       <c r="T18" s="39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G19" s="63" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
@@ -8080,18 +8112,18 @@
       <c r="Q19" s="66"/>
       <c r="R19" s="64"/>
     </row>
-    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>80</v>
@@ -8118,18 +8150,18 @@
       <c r="Q20" s="66"/>
       <c r="R20" s="64"/>
     </row>
-    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>85</v>
@@ -8144,7 +8176,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -8170,26 +8202,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -8198,7 +8230,7 @@
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
     </row>
-    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8218,10 +8250,10 @@
         <v>90</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8232,12 +8264,12 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>91</v>
@@ -8252,15 +8284,15 @@
         <v>105</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>93</v>
@@ -8276,12 +8308,12 @@
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>95</v>
@@ -8293,7 +8325,7 @@
         <v>92</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G6" s="40"/>
     </row>
@@ -8306,36 +8338,36 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="39" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -8345,7 +8377,7 @@
       <c r="G1" s="79"/>
       <c r="H1" s="80"/>
       <c r="I1" s="71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J1" s="72"/>
       <c r="K1" s="72"/>
@@ -8355,7 +8387,7 @@
       <c r="O1" s="72"/>
       <c r="P1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8366,7 +8398,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>90</v>
@@ -8381,7 +8413,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>89</v>
@@ -8393,7 +8425,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>101</v>
@@ -8402,10 +8434,10 @@
         <v>102</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -8425,90 +8457,90 @@
       <c r="O3" s="10"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>107</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>95</v>
       </c>
       <c r="P4" s="63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M5" s="63"/>
       <c r="N5" s="63"/>
@@ -8519,31 +8551,31 @@
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="63" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>109</v>
@@ -8552,42 +8584,42 @@
         <v>107</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>109</v>
@@ -8596,11 +8628,11 @@
         <v>107</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M7" s="63"/>
       <c r="N7" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
@@ -8618,29 +8650,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="23" style="39" customWidth="1"/>
     <col min="3" max="3" width="17" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -8652,7 +8684,7 @@
       <c r="I1" s="72"/>
       <c r="J1" s="73"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8678,13 +8710,13 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8698,15 +8730,15 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -8715,30 +8747,30 @@
         <v>59</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -8747,13 +8779,13 @@
         <v>59</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
@@ -8768,36 +8800,36 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
     <col min="7" max="7" width="15" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="39" customWidth="1"/>
     <col min="10" max="10" width="16" style="39" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" style="39" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="39" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -8807,7 +8839,7 @@
       <c r="G1" s="82"/>
       <c r="H1" s="83"/>
       <c r="I1" s="84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
@@ -8818,7 +8850,7 @@
       <c r="P1" s="84"/>
       <c r="Q1" s="84"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8868,10 +8900,10 @@
         <v>101</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8892,12 +8924,12 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>94</v>
@@ -8906,7 +8938,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
@@ -8916,7 +8948,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -8925,13 +8957,13 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="40"/>
       <c r="C5" s="30"/>
@@ -8941,7 +8973,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -8956,7 +8988,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8965,7 +8997,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -8980,12 +9012,12 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>94</v>
@@ -8994,7 +9026,7 @@
         <v>127</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -9002,7 +9034,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9013,12 +9045,12 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>103</v>
@@ -9027,7 +9059,7 @@
         <v>135</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -9035,7 +9067,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -9048,16 +9080,16 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>103</v>
@@ -9066,7 +9098,7 @@
         <v>138</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -9074,7 +9106,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -9089,12 +9121,12 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>94</v>
@@ -9103,7 +9135,7 @@
         <v>140</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -9111,7 +9143,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -9133,30 +9165,30 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="39" customWidth="1"/>
     <col min="8" max="8" width="25" style="39" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="39" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9174,7 +9206,7 @@
       <c r="O1" s="70"/>
       <c r="P1" s="70"/>
     </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9215,16 +9247,16 @@
         <v>151</v>
       </c>
       <c r="N2" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>411</v>
-      </c>
       <c r="P2" s="33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -9244,21 +9276,21 @@
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>152</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F4" s="40" t="b">
         <v>1</v>
@@ -9279,16 +9311,16 @@
         <v>156</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -9312,27 +9344,27 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>158</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F6" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>159</v>
@@ -9366,33 +9398,33 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="39" customWidth="1"/>
     <col min="3" max="3" width="11" style="39" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="39" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="39" customWidth="1"/>
     <col min="6" max="6" width="18" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="39" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="39" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="39" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="39" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -9415,7 +9447,7 @@
       <c r="T1" s="72"/>
       <c r="U1" s="73"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -9447,7 +9479,7 @@
         <v>167</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L2" s="41" t="s">
         <v>168</v>
@@ -9468,19 +9500,19 @@
         <v>173</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T2" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="U2" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -9505,22 +9537,22 @@
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>175</v>
@@ -9556,10 +9588,10 @@
         <v>104</v>
       </c>
       <c r="R4" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="S4" s="58" t="s">
         <v>430</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>431</v>
       </c>
       <c r="T4" s="40">
         <v>2</v>
@@ -9568,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -9579,13 +9611,13 @@
         <v>180</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>175</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I5" s="40">
         <v>443</v>
@@ -9593,10 +9625,10 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>182</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>183</v>
       </c>
       <c r="N5" s="40" t="b">
         <v>1</v>
@@ -9611,22 +9643,22 @@
       <c r="T5" s="40"/>
       <c r="U5" s="40"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>175</v>
@@ -9668,33 +9700,33 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="39" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="21.08984375" style="39" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="39" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="39" customWidth="1"/>
+    <col min="14" max="16" width="13.83203125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -9705,7 +9737,7 @@
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
       <c r="J1" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
@@ -9717,7 +9749,7 @@
       <c r="R1" s="85"/>
       <c r="S1" s="86"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9725,58 +9757,58 @@
         <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -9799,21 +9831,21 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>201</v>
-      </c>
       <c r="E4" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -9832,13 +9864,13 @@
       </c>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -9855,13 +9887,13 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -9878,13 +9910,13 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -9901,13 +9933,13 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -9924,12 +9956,12 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40" t="b">
@@ -9951,24 +9983,24 @@
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="J10" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -9980,32 +10012,32 @@
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>214</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="O11" s="40"/>
       <c r="P11" s="40">
@@ -10015,32 +10047,32 @@
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O12" s="40"/>
       <c r="P12" s="40">
@@ -10050,12 +10082,12 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -10065,24 +10097,24 @@
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -10092,7 +10124,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -10104,12 +10136,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -10119,7 +10151,7 @@
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -10129,12 +10161,12 @@
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -10144,7 +10176,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
@@ -10153,15 +10185,15 @@
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
       <c r="S16" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -10171,7 +10203,7 @@
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
@@ -10181,12 +10213,12 @@
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -10196,19 +10228,19 @@
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -10229,17 +10261,17 @@
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -10256,13 +10288,13 @@
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -10279,21 +10311,21 @@
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -10310,13 +10342,13 @@
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -10339,57 +10371,57 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1200-000001000000}">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1200-000002000000}">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1200-000003000000}">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1200-000004000000}">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1200-000005000000}">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2"/>
+    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1200-000006000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10403,70 +10435,70 @@
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>592</v>
-      </c>
       <c r="D3" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>594</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>597</v>
-      </c>
       <c r="D6" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
@@ -10475,122 +10507,122 @@
       <c r="D7" s="38"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>356</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>357</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>359</v>
-      </c>
       <c r="D9" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="63"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>361</v>
-      </c>
       <c r="D10" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="63"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>362</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>363</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" s="63"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>366</v>
-      </c>
       <c r="E13" s="63"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" s="63"/>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="D15" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>370</v>
-      </c>
       <c r="E15" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -10603,24 +10635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -10628,7 +10660,7 @@
       <c r="E1" s="88"/>
       <c r="F1" s="89"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10636,7 +10668,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>162</v>
@@ -10645,10 +10677,10 @@
         <v>120</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -10658,27 +10690,27 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>174</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -10686,46 +10718,46 @@
         <v>180</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -10733,7 +10765,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -10742,29 +10774,29 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="39" customWidth="1"/>
     <col min="9" max="9" width="15" style="39" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10782,7 +10814,7 @@
       <c r="O1" s="70"/>
       <c r="P1" s="70"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10793,46 +10825,46 @@
         <v>162</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>147</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="M2" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O2" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="P2" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -10852,40 +10884,40 @@
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="N4" s="58" t="s">
         <v>430</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>431</v>
       </c>
       <c r="O4" s="40">
         <v>2</v>
@@ -10894,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
@@ -10902,17 +10934,17 @@
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -10922,24 +10954,24 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>21</v>
@@ -10948,7 +10980,7 @@
         <v>160</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>176</v>
@@ -10974,55 +11006,55 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>265</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -11031,18 +11063,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="31">
         <v>302</v>
@@ -11051,18 +11083,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
         <v>267</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" t="s">
-        <v>268</v>
       </c>
       <c r="E4" s="31">
         <v>303</v>
@@ -11071,15 +11103,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="31">
@@ -11089,12 +11121,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="31">
@@ -11102,194 +11134,194 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="31" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31" t="s">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31" t="s">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31" t="s">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31" t="s">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="31" t="s">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="31" t="s">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31" t="s">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="31" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31" t="s">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="31" t="s">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31" t="s">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31" t="s">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31" t="s">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="31" t="s">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="31" t="s">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="31" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="31" t="s">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="31" t="s">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31" t="s">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="31" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11299,763 +11331,763 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="39"/>
+    <col min="3" max="3" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>419</v>
-      </c>
       <c r="D1" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="H2" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="C3" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F3" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
-      <c r="A3" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="49" t="s">
+      <c r="C4" s="40" t="s">
         <v>414</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>415</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="I9" s="40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="I13" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="I14" s="40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="40" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I15" s="40" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I16" s="40" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="40" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" s="40" t="s">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18" s="40" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="40" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="40" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="40" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I20" s="40" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I21" s="40" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="40" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I22" s="40" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="40" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I23" s="40" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="40" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I24" s="40" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="40" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I25" s="40" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="40" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="40" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="40" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I27" s="40" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="40" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I28" s="40" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="40" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I29" s="40" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="40" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I30" s="40" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I31" s="40" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="40" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I32" s="40" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="40" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33" s="40" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="40" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34" s="40" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I35" s="40" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="40" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I36" s="40" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="40" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I37" s="40" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="40" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I38" s="40" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="40" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I39" s="40" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="40" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I40" s="40" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="40" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I41" s="40" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="40" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I42" s="40" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="40" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I43" s="40" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="40" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I44" s="40" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="40" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I45" s="40" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="40" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I46" s="40" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I47" s="40" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="40" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I48" s="40" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="40" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I49" s="40" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="40" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I50" s="40" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="40" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I51" s="40" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="40" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52" s="40" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="40" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I53" s="40" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="40" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I54" s="40" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="40" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I55" s="40" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="40" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I56" s="40" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="40" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I57" s="40" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="40" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I58" s="40" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I59" s="40" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="40" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I60" s="40" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="40" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I61" s="40" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I62" s="40" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I63" s="40" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I64" s="40" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="40" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I65" s="40" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="40" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I66" s="40" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="40" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I67" s="40" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="40" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I68" s="40" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="40" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I69" s="40" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="40" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I70" s="40" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="40" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I71" s="40" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="40" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I72" s="40" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="40" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I73" s="40" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="40" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I74" s="40" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="40" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I75" s="40" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="40" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I76" s="40" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="40" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I77" s="40" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="40" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I78" s="40" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="40" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I79" s="40" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="40" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I80" s="40" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="40" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I81" s="40" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="40" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I82" s="40" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="40" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I83" s="40" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="40" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I84" s="40" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I85" s="40" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="40" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I86" s="40" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="40" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I87" s="40" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I88" s="40" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="40" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I89" s="40" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="40" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I90" s="40" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="40" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I91" s="40" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="40" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I92" s="40" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="40" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I93" s="40" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="40" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I94" s="40" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="40" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I95" s="40" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="40" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I96" s="40" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="40" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I97" s="40" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="40" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I98" s="40" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="40" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I99" s="40" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="40" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I100" s="40" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="40" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I101" s="40" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="40" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I102" s="40" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="40" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I103" s="40" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="40" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I104" s="40" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="40" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I105" s="40" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="40" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I106" s="40" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="40" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I107" s="40" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="40" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I108" s="40" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -12065,32 +12097,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -12101,104 +12133,104 @@
         <v>2</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>598</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>599</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>600</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>601</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>602</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>603</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>604</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>605</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>606</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>607</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>608</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
         <v>4</v>
       </c>
@@ -12213,27 +12245,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="39" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="39" customWidth="1"/>
+    <col min="6" max="7" width="28.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -12243,7 +12275,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -12266,1704 +12298,1704 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>795</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>796</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>611</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>612</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
     </row>
-    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
     </row>
-    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D32" s="38" t="s">
+      <c r="E32" s="38" t="s">
         <v>638</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>639</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D44" s="38" t="s">
+      <c r="E44" s="38" t="s">
         <v>651</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>652</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D61" s="38" t="s">
+      <c r="E61" s="38" t="s">
         <v>670</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>671</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
     </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
     </row>
-    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
     </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
     </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
     </row>
-    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
     </row>
-    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
     </row>
-    <row r="77" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
     </row>
-    <row r="78" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D78" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="C78" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D78" s="38" t="s">
+      <c r="E78" s="38" t="s">
         <v>687</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>688</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
     </row>
-    <row r="79" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
     </row>
-    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
     </row>
-    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
     </row>
-    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
     </row>
-    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
     </row>
-    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
     </row>
-    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
     </row>
-    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D95" s="38" t="s">
+      <c r="E95" s="38" t="s">
         <v>705</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>706</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
     </row>
-    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
     </row>
-    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
     </row>
-    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
     </row>
-    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
     </row>
-    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
       <c r="H103" s="38"/>
     </row>
-    <row r="104" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="38"/>
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A105" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D105" s="38" t="s">
+        <v>800</v>
+      </c>
+      <c r="E105" s="38" t="s">
         <v>801</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>802</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D106" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C106" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D106" s="38" t="s">
+      <c r="E106" s="38" t="s">
         <v>716</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>717</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="38"/>
       <c r="B109" s="38"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
     </row>
-    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
     </row>
-    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
     </row>
-    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
     </row>
-    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
     </row>
-    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="38"/>
     </row>
-    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
     </row>
-    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
     </row>
-    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
     </row>
-    <row r="118" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
     </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="38"/>
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
     </row>
-    <row r="120" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
     </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="38"/>
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
     </row>
-    <row r="122" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="38"/>
       <c r="B122" s="38"/>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
     </row>
-    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="38"/>
       <c r="B123" s="38"/>
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
     </row>
-    <row r="124" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
     </row>
-    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="38"/>
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
     </row>
-    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="38"/>
       <c r="B126" s="38"/>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
     </row>
-    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38"/>
       <c r="B127" s="38"/>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
     </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
     </row>
-    <row r="129" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
     </row>
-    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="38"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
     </row>
-    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="38"/>
       <c r="B131" s="38"/>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
     </row>
-    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="38"/>
       <c r="B132" s="38"/>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
     </row>
-    <row r="133" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="38"/>
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38"/>
     </row>
-    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="38"/>
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
     </row>
-    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="38"/>
       <c r="B135" s="38"/>
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
     </row>
-    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="38"/>
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="38" t="s">
         <v>748</v>
       </c>
-      <c r="C137" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D137" s="38" t="s">
+      <c r="E137" s="38" t="s">
         <v>749</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>750</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -13978,30 +14010,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="19.1640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="39" customWidth="1"/>
     <col min="8" max="8" width="21" style="39" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14009,13 +14041,13 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
       <c r="G1" s="74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -14023,91 +14055,91 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="I2" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>804</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>805</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>807</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>808</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -14121,77 +14153,77 @@
       <c r="I5" s="45"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C6" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="E6" s="63" t="s">
         <v>308</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>309</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>308</v>
-      </c>
       <c r="E7" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" s="63"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63" t="b">
@@ -14201,21 +14233,21 @@
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63" t="b">
@@ -14225,21 +14257,21 @@
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63" t="b">
@@ -14249,47 +14281,47 @@
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>319</v>
       </c>
       <c r="G11" s="63" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63" t="b">
@@ -14299,19 +14331,19 @@
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63" t="b">
@@ -14321,19 +14353,19 @@
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="63" t="b">
@@ -14341,7 +14373,7 @@
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J14" s="63"/>
     </row>
@@ -14356,31 +14388,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="39" customWidth="1"/>
     <col min="9" max="9" width="14" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.5" style="39" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14388,7 +14420,7 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
       <c r="G1" s="71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
@@ -14396,7 +14428,7 @@
       <c r="K1" s="72"/>
       <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -14431,18 +14463,18 @@
         <v>18</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
@@ -14463,12 +14495,12 @@
         <v>24</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -14484,12 +14516,12 @@
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>19</v>
@@ -14498,7 +14530,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>24</v>
@@ -14510,27 +14542,27 @@
         <v>21</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J5" s="63" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>23</v>
@@ -14548,7 +14580,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>25</v>
@@ -14556,15 +14588,15 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>26</v>
@@ -14582,7 +14614,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>25</v>
@@ -14601,28 +14633,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="39" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="39"/>
+    <col min="1" max="1" width="32.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="39" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="76"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -14630,13 +14662,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="40"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -14644,7 +14676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -14652,7 +14684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -14670,28 +14702,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -14701,7 +14733,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14724,18 +14756,18 @@
         <v>37</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>38</v>
@@ -14744,12 +14776,12 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -14761,12 +14793,12 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>19</v>
@@ -14781,21 +14813,21 @@
         <v>40</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>38</v>
@@ -14809,18 +14841,18 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>41</v>
@@ -14841,37 +14873,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.5" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
     <col min="17" max="17" width="10" style="39" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14881,7 +14913,7 @@
       <c r="G1" s="72"/>
       <c r="H1" s="73"/>
       <c r="I1" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
@@ -14893,7 +14925,7 @@
       <c r="Q1" s="77"/>
       <c r="R1" s="77"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14946,21 +14978,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>53</v>
@@ -14969,7 +15001,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>38</v>
@@ -14997,21 +15029,21 @@
       <c r="Q3" s="68"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>54</v>
@@ -15045,21 +15077,21 @@
       <c r="Q4" s="68"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>773</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>774</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>54</v>
@@ -15076,7 +15108,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M5" s="67" t="s">
         <v>21</v>
@@ -15093,7 +15125,7 @@
       <c r="Q5" s="68"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -15114,18 +15146,18 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>53</v>
@@ -15147,7 +15179,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M7" s="66" t="s">
         <v>21</v>
@@ -15163,24 +15195,24 @@
       </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="63" t="s">
         <v>385</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>386</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>54</v>
@@ -15214,18 +15246,18 @@
       <c r="Q8" s="66"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>58</v>
@@ -15262,21 +15294,21 @@
       <c r="Q9" s="66"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>54</v>
@@ -15285,7 +15317,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63" t="s">
@@ -15312,21 +15344,21 @@
       <c r="Q10" s="66"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>54</v>
@@ -15335,11 +15367,11 @@
         <v>60</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I11" s="63"/>
       <c r="J11" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K11" s="63" t="s">
         <v>24</v>
@@ -15362,21 +15394,21 @@
       <c r="Q11" s="66"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>391</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>392</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>54</v>
@@ -15385,17 +15417,17 @@
         <v>60</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I12" s="63"/>
       <c r="J12" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K12" s="63" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M12" s="66" t="s">
         <v>24</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E68B8-6B4C-194F-AB5A-87A661150C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -34,11 +33,16 @@
     <sheet name="RuleSet" sheetId="18" r:id="rId19"/>
     <sheet name="PathRouteSet" sheetId="19" r:id="rId20"/>
     <sheet name="LB-Listener" sheetId="20" r:id="rId21"/>
-    <sheet name="Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId22"/>
-    <sheet name="Database_Dropdown" sheetId="27" state="hidden" r:id="rId23"/>
+    <sheet name="ADW_ATP" sheetId="28" r:id="rId22"/>
+    <sheet name="DB_System_VM" sheetId="29" r:id="rId23"/>
+    <sheet name="DB_System_BM" sheetId="30" r:id="rId24"/>
+    <sheet name="DB_System_EXA" sheetId="31" r:id="rId25"/>
+    <sheet name="Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId26"/>
+    <sheet name="Database_Dropdown" sheetId="27" state="hidden" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="18">'Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -54,11 +58,14 @@
     <definedName name="Match_Style" localSheetId="18">'Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="nchar_set">Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="Response_Code">'Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Shape_Option" localSheetId="26">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="22">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="VM_Shapes" localSheetId="22">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="26">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
     <definedName name="VM_shapes_drop">Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="workload_drop">Database_Dropdown!$D$2:$D$3</definedName>
@@ -68,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="879">
   <si>
     <t>Region</t>
   </si>
@@ -4605,77 +4612,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v7.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Compartment Name" - </t>
     </r>
@@ -5947,13 +5883,759 @@
   </si>
   <si>
     <t>/fss4</t>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DB Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 14 character and should contain only Alpha-Numeric Characters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"ADW or ATP" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify ADW/ATP in this column to create the respective Autonomous database.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Admin Password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Password must be 9 to 30 characters and contain at least 2 uppercase, 2 lowercase, 2 special, and 2 numeric 
+                                  characters. The special characters must be _, #, or -.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>DB Name</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>CPU Count</t>
+  </si>
+  <si>
+    <t>Size in TB</t>
+  </si>
+  <si>
+    <t>ADW or ATP</t>
+  </si>
+  <si>
+    <t>ADWtest1</t>
+  </si>
+  <si>
+    <t>ADWAc3</t>
+  </si>
+  <si>
+    <t>Rajvilla#6330</t>
+  </si>
+  <si>
+    <t>ADW</t>
+  </si>
+  <si>
+    <t>ATPtest2</t>
+  </si>
+  <si>
+    <t>ATPAc3</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Node count must be specififed as per the shape selected.
+If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Time Zone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the time zone to use for the DB system.The value should be the same as displayed in OCI Console and is Case Sensitive.
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Asia/Calcutta | UTC | US/Pacific-New</t>
+    </r>
+  </si>
+  <si>
+    <t>DB Display Name</t>
+  </si>
+  <si>
+    <t>Total Node Count</t>
+  </si>
+  <si>
+    <t>Oracle DB Software Edition</t>
+  </si>
+  <si>
+    <t>DB Size (GB)</t>
+  </si>
+  <si>
+    <t>DB Disk Redundancy</t>
+  </si>
+  <si>
+    <t>Hostname Prefix</t>
+  </si>
+  <si>
+    <t>DB Home</t>
+  </si>
+  <si>
+    <t>DB Version</t>
+  </si>
+  <si>
+    <t>PDB Name</t>
+  </si>
+  <si>
+    <t>DB Admin Password</t>
+  </si>
+  <si>
+    <t>Workload Type</t>
+  </si>
+  <si>
+    <t>Automatic Backups</t>
+  </si>
+  <si>
+    <t>SSH Key</t>
+  </si>
+  <si>
+    <t>Recovery Windows (Days)</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_dev-subnet</t>
+  </si>
+  <si>
+    <t>VM test3</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>RACDB22</t>
+  </si>
+  <si>
+    <t>CDB1</t>
+  </si>
+  <si>
+    <t>pdb1</t>
+  </si>
+  <si>
+    <t>BEstrO0ng_#12</t>
+  </si>
+  <si>
+    <t>Asia/Calcutta</t>
+  </si>
+  <si>
+    <t>Operations.CostCenter=01;</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_qa-subnet</t>
+  </si>
+  <si>
+    <t>VM test4</t>
+  </si>
+  <si>
+    <t>RACDB23</t>
+  </si>
+  <si>
+    <t>CDB2</t>
+  </si>
+  <si>
+    <t>pdb2</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Node count must be specififed as per the shape selected.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"CPU Core" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- If the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 else if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is  BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Time Zone" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify the time zone to use for the DB system.The value should be the same as displayed in OCI Console and is Case Sensitive.
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Asia/Calcutta | UTC | US/Pacific-New</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CPU Core</t>
+  </si>
+  <si>
+    <t>BM DB300</t>
+  </si>
+  <si>
+    <t>BM30</t>
+  </si>
+  <si>
+    <t>CDB3</t>
+  </si>
+  <si>
+    <t>pdb3</t>
+  </si>
+  <si>
+    <t>US/Pacific-New</t>
+  </si>
+  <si>
+    <t>BM DB400</t>
+  </si>
+  <si>
+    <t>BM40</t>
+  </si>
+  <si>
+    <t>CDB4</t>
+  </si>
+  <si>
+    <t>pdb4</t>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Change CPU core as per shape selected.
+Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"CPU core"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84  | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168
+                        | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92
+                        | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 | Exadata.Half3.200 - Specify a multiple of 4, from 8 through 200
+                        | Exadata.Quater3.100 - Specify a multiple of 2, from 4 through 100 | Exadata.Full3.400 - Specify a multiple of 8, from 16 through 400</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Time Zone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the time zone to use for the DB system.The value should be the same as displayed in OCI Console and is Case Sensitive.
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Asia/Calcutta | UTC | US/Pacific-New</t>
+    </r>
+  </si>
+  <si>
+    <t>Backup Subnet Name</t>
+  </si>
+  <si>
+    <t>EXA DB30</t>
+  </si>
+  <si>
+    <t>EXADB21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CD3 Sheet Format is same as release v7.0
+Added additional components to Groups, Policies, Tags as per CIS compliance
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6137,6 +6819,20 @@
       <color rgb="FF1F2124"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6423,7 +7119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6631,6 +7327,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6732,6 +7485,71 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6808,23 +7626,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6860,23 +7661,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7052,22 +7836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>478</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -7077,27 +7861,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="39" customWidth="1"/>
     <col min="5" max="5" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>452</v>
       </c>
@@ -7110,7 +7894,7 @@
       <c r="H1" s="70"/>
       <c r="I1" s="70"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7149,26 +7933,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>453</v>
       </c>
@@ -7189,7 +7973,7 @@
       <c r="P1" s="70"/>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7251,31 +8035,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="39" customWidth="1"/>
     <col min="11" max="11" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>460</v>
       </c>
@@ -7299,7 +8083,7 @@
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7361,7 +8145,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
@@ -7369,13 +8153,13 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>752</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>753</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>395</v>
@@ -7389,7 +8173,7 @@
         <v>396</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -7402,12 +8186,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
@@ -7415,13 +8199,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>395</v>
@@ -7430,7 +8214,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>31</v>
@@ -7448,12 +8232,12 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
     </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -7461,13 +8245,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>395</v>
@@ -7476,10 +8260,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -7494,12 +8278,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
     </row>
-    <row r="6" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
@@ -7507,13 +8291,13 @@
         <v>355</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>395</v>
@@ -7527,7 +8311,7 @@
         <v>396</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -7540,12 +8324,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
     </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
@@ -7553,13 +8337,13 @@
         <v>355</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>395</v>
@@ -7568,10 +8352,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -7586,12 +8370,12 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
     </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
@@ -7599,13 +8383,13 @@
         <v>355</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>395</v>
@@ -7614,10 +8398,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -7632,12 +8416,12 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
@@ -7645,13 +8429,13 @@
         <v>355</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>395</v>
@@ -7665,7 +8449,7 @@
         <v>396</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -7678,12 +8462,12 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
     </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
@@ -7691,13 +8475,13 @@
         <v>355</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>395</v>
@@ -7708,10 +8492,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>777</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>778</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -7724,12 +8508,12 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>5</v>
       </c>
@@ -7737,13 +8521,13 @@
         <v>355</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>395</v>
@@ -7752,10 +8536,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -7770,12 +8554,12 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>5</v>
       </c>
@@ -7783,13 +8567,13 @@
         <v>355</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>395</v>
@@ -7798,10 +8582,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -7816,12 +8600,12 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>5</v>
       </c>
@@ -7829,13 +8613,13 @@
         <v>355</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>395</v>
@@ -7849,7 +8633,7 @@
         <v>396</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -7862,12 +8646,12 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
@@ -7875,13 +8659,13 @@
         <v>355</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>395</v>
@@ -7892,10 +8676,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>777</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>778</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -7908,12 +8692,12 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>5</v>
       </c>
@@ -7921,13 +8705,13 @@
         <v>355</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>395</v>
@@ -7936,10 +8720,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -7954,12 +8738,12 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>5</v>
       </c>
@@ -7967,13 +8751,13 @@
         <v>355</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>395</v>
@@ -7982,10 +8766,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -8000,12 +8784,12 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
@@ -8029,7 +8813,7 @@
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
     </row>
-    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="63" t="s">
         <v>5</v>
       </c>
@@ -8070,7 +8854,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="63" t="s">
         <v>5</v>
       </c>
@@ -8112,7 +8896,7 @@
       <c r="Q19" s="66"/>
       <c r="R19" s="64"/>
     </row>
-    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
         <v>5</v>
       </c>
@@ -8150,7 +8934,7 @@
       <c r="Q20" s="66"/>
       <c r="R20" s="64"/>
     </row>
-    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
         <v>5</v>
       </c>
@@ -8202,24 +8986,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>461</v>
       </c>
@@ -8230,7 +9014,7 @@
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
     </row>
-    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8253,7 +9037,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8264,7 +9048,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -8287,7 +9071,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -8308,7 +9092,7 @@
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -8338,34 +9122,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="39" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
         <v>477</v>
       </c>
@@ -8377,7 +9161,7 @@
       <c r="G1" s="79"/>
       <c r="H1" s="80"/>
       <c r="I1" s="71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J1" s="72"/>
       <c r="K1" s="72"/>
@@ -8387,7 +9171,7 @@
       <c r="O1" s="72"/>
       <c r="P1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +9209,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>101</v>
@@ -8437,7 +9221,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -8457,7 +9241,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
@@ -8468,13 +9252,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
@@ -8492,7 +9276,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M4" s="63" t="s">
         <v>369</v>
@@ -8507,7 +9291,7 @@
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -8518,13 +9302,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
@@ -8551,7 +9335,7 @@
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -8562,13 +9346,13 @@
         <v>59</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
@@ -8595,7 +9379,7 @@
       <c r="Q6" s="63"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -8606,13 +9390,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
@@ -8650,29 +9434,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
     <col min="2" max="2" width="23" style="39" customWidth="1"/>
     <col min="3" max="3" width="17" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -8684,7 +9468,7 @@
       <c r="I1" s="72"/>
       <c r="J1" s="73"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8710,13 +9494,13 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8730,7 +9514,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
@@ -8738,7 +9522,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -8747,13 +9531,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I4" s="63" t="s">
         <v>369</v>
@@ -8762,7 +9546,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -8770,7 +9554,7 @@
         <v>336</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -8779,7 +9563,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>114</v>
@@ -8800,34 +9584,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" customWidth="1"/>
     <col min="7" max="7" width="15" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="16" style="39" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="39" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>468</v>
       </c>
@@ -8850,7 +9634,7 @@
       <c r="P1" s="84"/>
       <c r="Q1" s="84"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8903,7 +9687,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -8924,7 +9708,7 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -8948,7 +9732,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -8963,7 +9747,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="40"/>
       <c r="C5" s="30"/>
@@ -8973,7 +9757,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -8988,7 +9772,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8997,7 +9781,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -9012,7 +9796,7 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -9034,7 +9818,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9045,7 +9829,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -9067,7 +9851,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -9084,7 +9868,7 @@
       </c>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9106,7 +9890,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -9121,7 +9905,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -9143,7 +9927,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -9165,28 +9949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="39" customWidth="1"/>
     <col min="8" max="8" width="25" style="39" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="39" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>454</v>
       </c>
@@ -9206,7 +9990,7 @@
       <c r="O1" s="70"/>
       <c r="P1" s="70"/>
     </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9256,7 +10040,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -9276,7 +10060,7 @@
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -9320,7 +10104,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -9344,7 +10128,7 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -9398,31 +10182,31 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="39" customWidth="1"/>
     <col min="3" max="3" width="11" style="39" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="39" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="18" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="39" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="39" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>474</v>
       </c>
@@ -9447,7 +10231,7 @@
       <c r="T1" s="72"/>
       <c r="U1" s="73"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -9512,7 +10296,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -9537,7 +10321,7 @@
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -9600,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -9643,7 +10427,7 @@
       <c r="T5" s="40"/>
       <c r="U5" s="40"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -9700,31 +10484,31 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="39" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="39" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="39" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>445</v>
       </c>
@@ -9749,7 +10533,7 @@
       <c r="R1" s="85"/>
       <c r="S1" s="86"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9808,7 +10592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -9831,7 +10615,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -9864,7 +10648,7 @@
       </c>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -9887,7 +10671,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -9910,7 +10694,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -9933,7 +10717,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -9956,7 +10740,7 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -9983,7 +10767,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -10012,7 +10796,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -10047,7 +10831,7 @@
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -10082,7 +10866,7 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -10109,7 +10893,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -10136,7 +10920,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -10161,7 +10945,7 @@
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -10188,7 +10972,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -10213,7 +10997,7 @@
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -10240,7 +11024,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -10261,7 +11045,7 @@
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40" t="s">
@@ -10288,7 +11072,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -10311,7 +11095,7 @@
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>5</v>
       </c>
@@ -10342,7 +11126,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -10371,48 +11155,48 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1200-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1200-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1200-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1200-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1200-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>447</v>
       </c>
@@ -10421,7 +11205,7 @@
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10438,37 +11222,37 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>590</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>591</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>406</v>
       </c>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>592</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>593</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>406</v>
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -10476,29 +11260,29 @@
         <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>406</v>
       </c>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>595</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>596</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>406</v>
       </c>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
@@ -10507,7 +11291,7 @@
       <c r="D7" s="38"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -10520,7 +11304,7 @@
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -10535,7 +11319,7 @@
       </c>
       <c r="E9" s="63"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -10550,7 +11334,7 @@
       </c>
       <c r="E10" s="63"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -10563,7 +11347,7 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -10578,7 +11362,7 @@
       </c>
       <c r="E12" s="63"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
@@ -10593,7 +11377,7 @@
       </c>
       <c r="E13" s="63"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
@@ -10608,7 +11392,7 @@
       </c>
       <c r="E14" s="63"/>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -10635,22 +11419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>446</v>
       </c>
@@ -10660,7 +11444,7 @@
       <c r="E1" s="88"/>
       <c r="F1" s="89"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10680,7 +11464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -10690,7 +11474,7 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -10710,7 +11494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -10724,7 +11508,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
@@ -10740,7 +11524,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
@@ -10765,7 +11549,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -10774,27 +11558,27 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="15" style="39" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>473</v>
       </c>
@@ -10814,7 +11598,7 @@
       <c r="O1" s="70"/>
       <c r="P1" s="70"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10864,7 +11648,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -10884,7 +11668,7 @@
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -10926,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
@@ -10954,7 +11738,7 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -11006,24 +11790,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="39"/>
+    <col min="8" max="8" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>826</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="14" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13" style="39" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="99" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="39"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="39"/>
+    <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="20.453125" style="39"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="39"/>
+    <col min="25" max="25" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="94" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73"/>
+    </row>
+    <row r="2" spans="1:24" s="97" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>834</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>835</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="K2" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>837</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>838</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>839</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>840</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>843</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>845</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>846</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="53">
+        <v>2</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="53">
+        <v>256</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R4" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V4" s="40">
+        <v>15</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>854</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>857</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="53">
+        <v>256</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>858</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>859</v>
+      </c>
+      <c r="N5" s="98" t="s">
+        <v>414</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>860</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R5" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V5" s="40">
+        <v>15</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>861</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
+      <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>char_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+      <formula1>license_type_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+      <formula1>db_sersion_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>software_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+      <formula1>VM_shapes_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>workload_drop</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="99" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="39" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="94" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73"/>
+    </row>
+    <row r="2" spans="1:24" s="97" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>864</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>834</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>835</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>837</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>838</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>839</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>840</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>843</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>845</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>846</v>
+      </c>
+      <c r="X2" s="101" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+    </row>
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="53">
+        <v>2</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="53">
+        <v>256</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>867</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R4" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V4" s="40">
+        <v>15</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="53">
+        <v>2</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="53">
+        <v>256</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>872</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>873</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R5" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V5" s="40">
+        <v>15</v>
+      </c>
+      <c r="W5" s="102" t="s">
+        <v>854</v>
+      </c>
+      <c r="X5" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
+      <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
+      <formula1>"nchar_set"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>char_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+      <formula1>bm_shapes_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>software_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>workload_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+      <formula1>db_sersion_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+      <formula1>license_type_drop</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="39" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="94" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73"/>
+    </row>
+    <row r="2" spans="1:24" s="97" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>875</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>832</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>864</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>835</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="K2" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>837</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>819</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>839</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>840</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>843</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>845</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>846</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="92"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>876</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="53">
+        <v>2</v>
+      </c>
+      <c r="I4" s="53">
+        <v>256</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>877</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R4" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V4" s="40">
+        <v>10</v>
+      </c>
+      <c r="W4" s="102" t="s">
+        <v>854</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="108"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="109"/>
+      <c r="K5" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
+      <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>char_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+      <formula1>license_type_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>workload_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+      <formula1>db_sersion_drop</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+      <formula1>exa_shapes_drop</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>258</v>
       </c>
@@ -11043,7 +12941,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>223</v>
       </c>
@@ -11063,7 +12961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>227</v>
       </c>
@@ -11083,7 +12981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>207</v>
       </c>
@@ -11103,7 +13001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>200</v>
       </c>
@@ -11121,7 +13019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>220</v>
       </c>
@@ -11134,7 +13032,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>232</v>
       </c>
@@ -11143,7 +13041,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>206</v>
       </c>
@@ -11151,7 +13049,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>211</v>
       </c>
@@ -11159,7 +13057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>225</v>
       </c>
@@ -11167,7 +13065,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>230</v>
       </c>
@@ -11175,153 +13073,153 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="31" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="31" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="31" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11330,28 +13228,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="39"/>
+    <col min="3" max="3" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>338</v>
       </c>
@@ -11380,7 +13278,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>106</v>
       </c>
@@ -11409,7 +13307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>339</v>
       </c>
@@ -11432,13 +13330,13 @@
         <v>413</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>340</v>
       </c>
@@ -11455,10 +13353,10 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>337</v>
       </c>
@@ -11475,10 +13373,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>341</v>
       </c>
@@ -11493,10 +13391,10 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>329</v>
       </c>
@@ -11511,10 +13409,10 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
@@ -11527,10 +13425,10 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
@@ -11543,10 +13441,10 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="I9" s="40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
@@ -11559,10 +13457,10 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
@@ -11575,10 +13473,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
@@ -11589,10 +13487,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
@@ -11603,10 +13501,10 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="I13" s="40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
@@ -11617,477 +13515,477 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="I14" s="40" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="40" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I15" s="40" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="40" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I16" s="40" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="40" t="s">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="40" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="40" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="40" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="40" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="40" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="40" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="40" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="40" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="40" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="40" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I24" s="40" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="40" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="40" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="40" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="40" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="40" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I27" s="40" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="40" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="40" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="40" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="40" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="40" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="40" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="40" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="40" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="40" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="40" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="40" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="40" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="40" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="40" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="40" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="40" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="40" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="40" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="40" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="40" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="40" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="40" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="40" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="40" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="40" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="40" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="40" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="40" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="40" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="40" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="40" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="40" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="40" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="40" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="40" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="40" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="40" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="40" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="40" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="40" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="40" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="40" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="40" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="40" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="40" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="40" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="40" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="40" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="40" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="40" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="40" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="40" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="40" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="40" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="40" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="40" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="40" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="40" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="40" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="40" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="40" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="40" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="40" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="40" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="40" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="40" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="40" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="40" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="40" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="40" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="40" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="40" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="40" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="40" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="40" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="40" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="40" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="40" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="40" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="40" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="40" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="40" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="40" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="40" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="40" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="40" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="40" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="40" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="40" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="40" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="40" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="40" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="40" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="40" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="40" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="40" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="40" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="40" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="40" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="40" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="40" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="40" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="40" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="40" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="40" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="40" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="40" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="40" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="40" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="40" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="40" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="40" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="40" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="40" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="40" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="40" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="40" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="40" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="40" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="40" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="40" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="40" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="40" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="40" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="40" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="40" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="40" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="40" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="40" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="40" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="40" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="40" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="40" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="40" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="40" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="40" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="40" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="40" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="40" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="40" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="40" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="40" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I103" s="40" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="40" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="40" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="40" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="40" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="40" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="40" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="40" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="40" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="40" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I108" s="40" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="40" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -12097,23 +13995,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>448</v>
       </c>
@@ -12122,7 +14020,7 @@
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -12139,98 +14037,98 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>597</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>598</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>599</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>600</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>603</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>604</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>605</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>606</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>607</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>608</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>4</v>
       </c>
@@ -12245,25 +14143,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="39" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="39" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>449</v>
       </c>
@@ -12275,7 +14173,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -12301,1701 +14199,1701 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>794</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>795</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
     </row>
-    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
     </row>
-    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D32" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>637</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>638</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D44" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>650</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>651</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D61" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E61" s="38" t="s">
         <v>669</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>670</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
     </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
     </row>
-    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
     </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
     </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
     </row>
-    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
     </row>
-    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
     </row>
-    <row r="77" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
     </row>
-    <row r="78" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D78" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>686</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>687</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
     </row>
-    <row r="79" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
     </row>
-    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
     </row>
-    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
     </row>
-    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
     </row>
-    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
     </row>
-    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
     </row>
-    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
     </row>
-    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D95" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E95" s="38" t="s">
         <v>704</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>705</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
     </row>
-    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
     </row>
-    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
     </row>
-    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
     </row>
-    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
     </row>
-    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
       <c r="H103" s="38"/>
     </row>
-    <row r="104" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="38"/>
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="39" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C105" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D105" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="E105" s="38" t="s">
         <v>800</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>801</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C106" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D106" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="E106" s="38" t="s">
         <v>715</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>716</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="38"/>
       <c r="B109" s="38"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
     </row>
-    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
     </row>
-    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
     </row>
-    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
     </row>
-    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
     </row>
-    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="38"/>
     </row>
-    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
     </row>
-    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
     </row>
-    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
     </row>
-    <row r="118" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
     </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="38"/>
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
     </row>
-    <row r="120" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
     </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38"/>
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
     </row>
-    <row r="122" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="38"/>
       <c r="B122" s="38"/>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
     </row>
-    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="38"/>
       <c r="B123" s="38"/>
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
     </row>
-    <row r="124" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
     </row>
-    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="38"/>
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
     </row>
-    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="38"/>
       <c r="B126" s="38"/>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
     </row>
-    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="38"/>
       <c r="B127" s="38"/>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
     </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
     </row>
-    <row r="129" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
     </row>
-    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="38"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
     </row>
-    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="38"/>
       <c r="B131" s="38"/>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
     </row>
-    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="38"/>
       <c r="B132" s="38"/>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
     </row>
-    <row r="133" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="38"/>
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38"/>
     </row>
-    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="38"/>
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
     </row>
-    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="38"/>
       <c r="B135" s="38"/>
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
     </row>
-    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="38"/>
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D137" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="E137" s="38" t="s">
         <v>748</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>749</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -14010,30 +15908,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="39" customWidth="1"/>
     <col min="8" max="8" width="21" style="39" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -14047,7 +15945,7 @@
       <c r="I1" s="75"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -14079,7 +15977,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>5</v>
       </c>
@@ -14087,16 +15985,16 @@
         <v>406</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>803</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>804</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -14106,10 +16004,10 @@
         <v>406</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
@@ -14117,16 +16015,16 @@
         <v>406</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>806</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>807</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -14136,10 +16034,10 @@
         <v>406</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -14153,7 +16051,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -14183,7 +16081,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -14211,7 +16109,7 @@
       </c>
       <c r="J7" s="63"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -14233,7 +16131,7 @@
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -14257,7 +16155,7 @@
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -14281,7 +16179,7 @@
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -14309,7 +16207,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -14331,7 +16229,7 @@
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
@@ -14353,7 +16251,7 @@
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
@@ -14388,29 +16286,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="14" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="39" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>463</v>
       </c>
@@ -14428,7 +16326,7 @@
       <c r="K1" s="72"/>
       <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -14466,7 +16364,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>324</v>
       </c>
@@ -14474,7 +16372,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
@@ -14495,12 +16393,12 @@
         <v>24</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -14516,7 +16414,7 @@
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -14554,7 +16452,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -14588,7 +16486,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -14633,28 +16531,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="39" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="39"/>
+    <col min="1" max="1" width="32.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="39" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>443</v>
       </c>
       <c r="B1" s="76"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -14662,13 +16560,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="40"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -14676,7 +16574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -14684,7 +16582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -14702,26 +16600,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>450</v>
       </c>
@@ -14733,7 +16631,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14759,7 +16657,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>324</v>
       </c>
@@ -14767,7 +16665,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>38</v>
@@ -14776,12 +16674,12 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -14793,7 +16691,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -14819,7 +16717,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -14841,7 +16739,7 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -14873,35 +16771,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="39" customWidth="1"/>
     <col min="17" max="17" width="10" style="39" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>444</v>
       </c>
@@ -14925,7 +16823,7 @@
       <c r="Q1" s="77"/>
       <c r="R1" s="77"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14981,7 +16879,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>324</v>
       </c>
@@ -14989,10 +16887,10 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>53</v>
@@ -15001,7 +16899,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>38</v>
@@ -15029,7 +16927,7 @@
       <c r="Q3" s="68"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>324</v>
       </c>
@@ -15037,13 +16935,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>54</v>
@@ -15077,7 +16975,7 @@
       <c r="Q4" s="68"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>324</v>
       </c>
@@ -15085,13 +16983,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>772</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>773</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>54</v>
@@ -15125,7 +17023,7 @@
       <c r="Q5" s="68"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -15146,7 +17044,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -15198,7 +17096,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -15246,7 +17144,7 @@
       <c r="Q8" s="66"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -15294,7 +17192,7 @@
       <c r="Q9" s="66"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -15344,7 +17242,7 @@
       <c r="Q10" s="66"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -15394,7 +17292,7 @@
       <c r="Q11" s="66"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -42,7 +42,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId28"/>
-    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="18">'Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -4407,211 +4406,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server. 
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NSGs" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DedicatedVMHost" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Compartment Name" - </t>
     </r>
@@ -6624,6 +6418,211 @@
       <t xml:space="preserve">
 CD3 Sheet Format is same as release v7.0
 Added additional components to Groups, Policies, Tags as per CIS compliance
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NSGs" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DedicatedVMHost" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -7267,6 +7266,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7329,60 +7382,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7480,71 +7479,6 @@
       <sheetData sheetId="20"/>
       <sheetData sheetId="21" refreshError="1"/>
       <sheetData sheetId="22" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7851,7 +7785,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -7882,17 +7816,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -7953,25 +7887,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -8060,28 +7994,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
@@ -8153,13 +8087,13 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>750</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>751</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>752</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>395</v>
@@ -8173,7 +8107,7 @@
         <v>396</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -8186,7 +8120,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -8199,13 +8133,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>395</v>
@@ -8214,7 +8148,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>31</v>
@@ -8232,7 +8166,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -8245,13 +8179,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>395</v>
@@ -8260,10 +8194,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -8278,7 +8212,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -8291,13 +8225,13 @@
         <v>355</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>395</v>
@@ -8311,7 +8245,7 @@
         <v>396</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -8324,7 +8258,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -8337,13 +8271,13 @@
         <v>355</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>395</v>
@@ -8352,10 +8286,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -8370,7 +8304,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -8383,13 +8317,13 @@
         <v>355</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>395</v>
@@ -8398,10 +8332,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -8416,7 +8350,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -8429,13 +8363,13 @@
         <v>355</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>395</v>
@@ -8449,7 +8383,7 @@
         <v>396</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -8462,7 +8396,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -8475,13 +8409,13 @@
         <v>355</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>395</v>
@@ -8492,10 +8426,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -8508,7 +8442,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -8521,13 +8455,13 @@
         <v>355</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>395</v>
@@ -8536,10 +8470,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -8554,7 +8488,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -8567,13 +8501,13 @@
         <v>355</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>395</v>
@@ -8582,10 +8516,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -8600,7 +8534,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -8613,13 +8547,13 @@
         <v>355</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>395</v>
@@ -8633,7 +8567,7 @@
         <v>396</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -8646,7 +8580,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -8659,13 +8593,13 @@
         <v>355</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>395</v>
@@ -8676,10 +8610,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -8692,7 +8626,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -8705,13 +8639,13 @@
         <v>355</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>395</v>
@@ -8720,10 +8654,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -8738,7 +8672,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -8751,13 +8685,13 @@
         <v>355</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>395</v>
@@ -8766,10 +8700,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -8784,7 +8718,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -9004,15 +8938,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
@@ -9126,7 +9060,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9150,26 +9084,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="71" t="s">
-        <v>587</v>
-      </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="73"/>
+      <c r="A1" s="97" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
@@ -9209,7 +9143,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>101</v>
@@ -9252,13 +9186,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
@@ -9276,7 +9210,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M4" s="63" t="s">
         <v>369</v>
@@ -9302,13 +9236,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
@@ -9346,13 +9280,13 @@
         <v>59</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
@@ -9390,13 +9324,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
@@ -9455,18 +9389,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="A1" s="90" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -9494,7 +9428,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>435</v>
@@ -9522,7 +9456,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -9531,13 +9465,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I4" s="63" t="s">
         <v>369</v>
@@ -9554,7 +9488,7 @@
         <v>336</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -9563,7 +9497,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>114</v>
@@ -9612,27 +9546,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -9732,7 +9666,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -9757,7 +9691,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -9781,7 +9715,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -9818,7 +9752,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9851,7 +9785,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -9890,7 +9824,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -9927,7 +9861,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -9971,24 +9905,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -10207,29 +10141,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="73"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="92"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -10509,29 +10443,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="74" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="93" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -11197,13 +11131,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
@@ -11227,10 +11161,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>589</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>590</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>406</v>
@@ -11242,10 +11176,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>591</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>592</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>406</v>
@@ -11260,7 +11194,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>406</v>
@@ -11272,10 +11206,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>406</v>
@@ -11435,14 +11369,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -11579,24 +11513,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -11812,17 +11746,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
-        <v>818</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="A1" s="109" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -11835,32 +11769,32 @@
         <v>323</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>819</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="F2" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>822</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>823</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="93"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -11874,13 +11808,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="72" t="s">
         <v>825</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>826</v>
       </c>
       <c r="F4" s="40">
         <v>1</v>
@@ -11889,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I4" s="60" t="s">
         <v>455</v>
@@ -11904,13 +11838,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>828</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>826</v>
+      <c r="E5" s="72" t="s">
+        <v>825</v>
       </c>
       <c r="F5" s="40">
         <v>1</v>
@@ -11919,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="51"/>
@@ -11953,7 +11887,7 @@
     <col min="8" max="8" width="27.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="13" style="39" customWidth="1"/>
     <col min="10" max="10" width="16.453125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="99" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="78" customWidth="1"/>
     <col min="12" max="13" width="20.453125" style="39"/>
     <col min="14" max="14" width="20.453125" style="3"/>
     <col min="15" max="17" width="20.453125" style="39"/>
@@ -11966,105 +11900,105 @@
     <col min="26" max="16384" width="20.453125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="94" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="92"/>
+    </row>
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="75" t="s">
         <v>831</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73"/>
-    </row>
-    <row r="2" spans="1:24" s="97" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="96" t="s">
+      <c r="F2" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>832</v>
       </c>
-      <c r="F2" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="95" t="s">
+      <c r="H2" s="74" t="s">
         <v>833</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="I2" s="74" t="s">
         <v>834</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="J2" s="74" t="s">
         <v>835</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="K2" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="74" t="s">
         <v>836</v>
       </c>
-      <c r="K2" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="95" t="s">
+      <c r="M2" s="74" t="s">
         <v>837</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="N2" s="74" t="s">
         <v>838</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="O2" s="74" t="s">
         <v>839</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="74" t="s">
         <v>840</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="Q2" s="74" t="s">
         <v>841</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="R2" s="74" t="s">
         <v>842</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="S2" s="74" t="s">
         <v>843</v>
       </c>
-      <c r="S2" s="95" t="s">
+      <c r="T2" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="74" t="s">
         <v>844</v>
       </c>
-      <c r="T2" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="U2" s="95" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="95" t="s">
+      <c r="W2" s="74" t="s">
         <v>845</v>
       </c>
-      <c r="W2" s="95" t="s">
-        <v>846</v>
-      </c>
-      <c r="X2" s="95" t="s">
+      <c r="X2" s="74" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12104,13 +12038,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>340</v>
@@ -12125,25 +12059,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="O4" s="53" t="s">
         <v>851</v>
       </c>
-      <c r="N4" s="98" t="s">
-        <v>412</v>
-      </c>
-      <c r="O4" s="53" t="s">
+      <c r="P4" s="53" t="s">
         <v>852</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>853</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -12164,10 +12098,10 @@
         <v>15</v>
       </c>
       <c r="W4" s="40" t="s">
+        <v>853</v>
+      </c>
+      <c r="X4" s="40" t="s">
         <v>854</v>
-      </c>
-      <c r="X4" s="40" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -12178,13 +12112,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>339</v>
@@ -12199,25 +12133,25 @@
         <v>256</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>413</v>
       </c>
       <c r="L5" s="53" t="s">
+        <v>857</v>
+      </c>
+      <c r="M5" s="53" t="s">
         <v>858</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="N5" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="O5" s="53" t="s">
         <v>859</v>
       </c>
-      <c r="N5" s="98" t="s">
-        <v>414</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>860</v>
-      </c>
       <c r="P5" s="53" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>333</v>
@@ -12238,10 +12172,10 @@
         <v>15</v>
       </c>
       <c r="W5" s="40" t="s">
+        <v>860</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>861</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -12296,7 +12230,7 @@
     <col min="8" max="8" width="28.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="78" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
@@ -12316,105 +12250,105 @@
     <col min="28" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="94" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="92"/>
+    </row>
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73"/>
-    </row>
-    <row r="2" spans="1:24" s="97" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>832</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>864</v>
-      </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="74" t="s">
+        <v>833</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>834</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="J2" s="74" t="s">
         <v>835</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="K2" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="74" t="s">
         <v>836</v>
       </c>
-      <c r="K2" s="100" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="95" t="s">
+      <c r="M2" s="74" t="s">
         <v>837</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="N2" s="74" t="s">
         <v>838</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="O2" s="74" t="s">
         <v>839</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="74" t="s">
         <v>840</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="Q2" s="74" t="s">
         <v>841</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="R2" s="74" t="s">
         <v>842</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="S2" s="74" t="s">
         <v>843</v>
       </c>
-      <c r="S2" s="95" t="s">
+      <c r="T2" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="74" t="s">
         <v>844</v>
       </c>
-      <c r="T2" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="U2" s="95" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="95" t="s">
+      <c r="W2" s="74" t="s">
         <v>845</v>
       </c>
-      <c r="W2" s="95" t="s">
-        <v>846</v>
-      </c>
-      <c r="X2" s="101" t="s">
+      <c r="X2" s="80" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12454,13 +12388,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>342</v>
@@ -12475,25 +12409,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>866</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>867</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>332</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -12514,7 +12448,7 @@
         <v>15</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="X4" s="38" t="s">
         <v>455</v>
@@ -12528,13 +12462,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>344</v>
@@ -12549,25 +12483,25 @@
         <v>256</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>413</v>
       </c>
       <c r="L5" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="M5" s="53" t="s">
         <v>871</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>872</v>
       </c>
       <c r="N5" s="53" t="s">
         <v>416</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>333</v>
@@ -12587,8 +12521,8 @@
       <c r="V5" s="40">
         <v>15</v>
       </c>
-      <c r="W5" s="102" t="s">
-        <v>854</v>
+      <c r="W5" s="81" t="s">
+        <v>853</v>
       </c>
       <c r="X5" s="40"/>
     </row>
@@ -12647,7 +12581,7 @@
     <col min="8" max="8" width="8.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="78" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
@@ -12665,134 +12599,134 @@
     <col min="27" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="94" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="92"/>
+    </row>
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="74" t="s">
         <v>874</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73"/>
-    </row>
-    <row r="2" spans="1:24" s="97" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>875</v>
-      </c>
-      <c r="F2" s="96" t="s">
-        <v>832</v>
-      </c>
-      <c r="G2" s="95" t="s">
+      <c r="F2" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="95" t="s">
-        <v>864</v>
-      </c>
-      <c r="I2" s="95" t="s">
+      <c r="H2" s="74" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>834</v>
+      </c>
+      <c r="J2" s="74" t="s">
         <v>835</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="K2" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="74" t="s">
         <v>836</v>
       </c>
-      <c r="K2" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>837</v>
-      </c>
-      <c r="M2" s="95" t="s">
-        <v>819</v>
-      </c>
-      <c r="N2" s="95" t="s">
+      <c r="M2" s="74" t="s">
+        <v>818</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>838</v>
+      </c>
+      <c r="O2" s="74" t="s">
         <v>839</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="74" t="s">
         <v>840</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="Q2" s="74" t="s">
         <v>841</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="R2" s="74" t="s">
         <v>842</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="S2" s="74" t="s">
         <v>843</v>
       </c>
-      <c r="S2" s="95" t="s">
+      <c r="T2" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="74" t="s">
         <v>844</v>
       </c>
-      <c r="T2" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="U2" s="95" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="95" t="s">
+      <c r="W2" s="74" t="s">
         <v>845</v>
-      </c>
-      <c r="W2" s="95" t="s">
-        <v>846</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:24" s="84" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="92"/>
+      <c r="B3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="71"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
@@ -12802,16 +12736,16 @@
         <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>346</v>
@@ -12823,25 +12757,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>332</v>
       </c>
       <c r="O4" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P4" s="53" t="s">
         <v>852</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>853</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -12861,17 +12795,17 @@
       <c r="V4" s="40">
         <v>10</v>
       </c>
-      <c r="W4" s="102" t="s">
-        <v>854</v>
+      <c r="W4" s="81" t="s">
+        <v>853</v>
       </c>
       <c r="X4" s="38" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="51"/>
-      <c r="C5" s="109"/>
+      <c r="C5" s="88"/>
       <c r="K5" s="39"/>
     </row>
   </sheetData>
@@ -13330,10 +13264,10 @@
         <v>413</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -13353,7 +13287,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -13373,7 +13307,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -13391,7 +13325,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -13409,7 +13343,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -13425,7 +13359,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -13441,7 +13375,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="I9" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -13457,7 +13391,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -13473,7 +13407,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -13487,7 +13421,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -13501,7 +13435,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="I13" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -13515,477 +13449,477 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -14012,13 +13946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -14042,10 +13976,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>596</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>597</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -14055,10 +13989,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>598</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>599</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -14068,10 +14002,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>600</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>601</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -14081,10 +14015,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>602</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>603</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -14094,10 +14028,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -14107,10 +14041,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>607</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -14120,10 +14054,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -14162,16 +14096,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -14204,16 +14138,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>793</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>794</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -14224,16 +14158,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>609</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>610</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -14245,7 +14179,7 @@
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -14257,7 +14191,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -14269,7 +14203,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -14281,7 +14215,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -14293,7 +14227,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -14305,7 +14239,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -14317,7 +14251,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -14329,7 +14263,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -14341,7 +14275,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -14353,7 +14287,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -14365,7 +14299,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -14377,7 +14311,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -14389,7 +14323,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -14401,7 +14335,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -14413,7 +14347,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -14425,7 +14359,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -14437,7 +14371,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -14449,7 +14383,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -14461,7 +14395,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -14473,7 +14407,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -14485,7 +14419,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -14497,7 +14431,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -14509,7 +14443,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -14521,7 +14455,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -14533,7 +14467,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -14545,7 +14479,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -14557,7 +14491,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -14568,16 +14502,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D32" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>636</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>637</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -14589,7 +14523,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -14601,7 +14535,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -14613,7 +14547,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -14625,7 +14559,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -14637,7 +14571,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -14649,7 +14583,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -14661,7 +14595,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -14673,7 +14607,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -14685,7 +14619,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -14697,7 +14631,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -14709,7 +14643,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -14720,16 +14654,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D44" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>649</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>650</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -14741,7 +14675,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -14753,7 +14687,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -14765,7 +14699,7 @@
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -14777,7 +14711,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -14789,7 +14723,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -14801,7 +14735,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -14813,7 +14747,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -14825,7 +14759,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -14837,7 +14771,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -14849,7 +14783,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -14861,7 +14795,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -14873,7 +14807,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -14885,7 +14819,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -14897,7 +14831,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -14909,7 +14843,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -14921,7 +14855,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -14932,16 +14866,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D61" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E61" s="38" t="s">
         <v>668</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>669</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -14953,7 +14887,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -14965,7 +14899,7 @@
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -14977,7 +14911,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -14989,7 +14923,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -15001,7 +14935,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -15013,7 +14947,7 @@
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -15025,7 +14959,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -15037,7 +14971,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -15049,7 +14983,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -15061,7 +14995,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -15073,7 +15007,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -15085,7 +15019,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -15097,7 +15031,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -15109,7 +15043,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -15121,7 +15055,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -15133,7 +15067,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -15144,16 +15078,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D78" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>685</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>686</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -15165,7 +15099,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -15177,7 +15111,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -15189,7 +15123,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -15201,7 +15135,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -15213,7 +15147,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -15225,7 +15159,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -15237,7 +15171,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -15249,7 +15183,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -15261,7 +15195,7 @@
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -15273,7 +15207,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -15285,7 +15219,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -15297,7 +15231,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -15309,7 +15243,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -15321,7 +15255,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -15333,7 +15267,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -15345,7 +15279,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -15356,16 +15290,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D95" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="E95" s="38" t="s">
         <v>703</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>704</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -15377,7 +15311,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -15389,7 +15323,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -15401,7 +15335,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -15413,7 +15347,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -15425,7 +15359,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -15437,7 +15371,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -15449,7 +15383,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -15461,7 +15395,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -15473,7 +15407,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -15484,16 +15418,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C105" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D105" s="38" t="s">
+        <v>798</v>
+      </c>
+      <c r="E105" s="38" t="s">
         <v>799</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>800</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -15504,16 +15438,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C106" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D106" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E106" s="38" t="s">
         <v>714</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>715</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -15525,7 +15459,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -15537,7 +15471,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -15549,7 +15483,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -15561,7 +15495,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -15573,7 +15507,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -15585,7 +15519,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -15597,7 +15531,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -15609,7 +15543,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -15621,7 +15555,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -15633,7 +15567,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -15645,7 +15579,7 @@
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -15657,7 +15591,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -15669,7 +15603,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -15681,7 +15615,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -15693,7 +15627,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -15705,7 +15639,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -15717,7 +15651,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -15729,7 +15663,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -15741,7 +15675,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -15753,7 +15687,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -15765,7 +15699,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -15777,7 +15711,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -15789,7 +15723,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -15801,7 +15735,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -15813,7 +15747,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -15825,7 +15759,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -15837,7 +15771,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -15849,7 +15783,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -15861,7 +15795,7 @@
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -15873,7 +15807,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -15884,16 +15818,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D137" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="E137" s="38" t="s">
         <v>747</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>748</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -15930,20 +15864,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74" t="s">
+      <c r="A1" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
@@ -15985,16 +15919,16 @@
         <v>406</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>802</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>803</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -16004,7 +15938,7 @@
         <v>406</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -16015,16 +15949,16 @@
         <v>406</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>805</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>806</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -16034,7 +15968,7 @@
         <v>406</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -16309,22 +16243,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="71" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -16372,7 +16306,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
@@ -16393,7 +16327,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -16547,10 +16481,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -16620,16 +16554,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -16665,7 +16599,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>38</v>
@@ -16674,7 +16608,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -16800,28 +16734,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="90" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="77" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -16887,10 +16821,10 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>53</v>
@@ -16899,7 +16833,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>38</v>
@@ -16935,13 +16869,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>54</v>
@@ -16983,13 +16917,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>771</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>772</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>54</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="893">
   <si>
     <t>Region</t>
   </si>
@@ -6698,6 +6698,21 @@
                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
                                 Example: Operations.CostCenter=01;Users.Name=user01
 </t>
+  </si>
+  <si>
+    <t>ash-drg</t>
+  </si>
+  <si>
+    <t>VCN::vcn01</t>
+  </si>
+  <si>
+    <t>vcn01-RT</t>
+  </si>
+  <si>
+    <t>vcn01-RD</t>
+  </si>
+  <si>
+    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
   </si>
 </sst>
 </file>
@@ -20013,7 +20028,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20101,7 +20116,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>21</v>
+        <v>888</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -20257,8 +20272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20309,13 +20324,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>888</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="38"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Policies" sheetId="4" r:id="rId4"/>
     <sheet name="Tags" sheetId="22" r:id="rId5"/>
     <sheet name="VCNs" sheetId="5" r:id="rId6"/>
-    <sheet name="DRGv2" sheetId="32" r:id="rId7"/>
+    <sheet name="DRGs" sheetId="32" r:id="rId7"/>
     <sheet name="VCN Info" sheetId="6" r:id="rId8"/>
     <sheet name="DHCP" sheetId="7" r:id="rId9"/>
     <sheet name="Subnets" sheetId="8" r:id="rId10"/>
@@ -6585,77 +6585,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGv2 and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t>DRG Name</t>
   </si>
   <si>
@@ -6669,12 +6598,6 @@
   </si>
   <si>
     <t>Import DRG Route Distribution Statements</t>
-  </si>
-  <si>
-    <t>DRG Route Rules will be exported here
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
     <t>Next Hop Attachment</t>
@@ -6713,6 +6636,83 @@
   </si>
   <si>
     <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
+  </si>
+  <si>
+    <t>DRG Route Rules will be exported here for DRGv2.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9420,7 +9420,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="61" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10015,8 +10015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10037,7 +10037,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -10057,25 +10057,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>881</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>882</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>435</v>
@@ -20116,7 +20116,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -20291,7 +20291,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="205" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -20308,19 +20308,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="89" t="s">
+        <v>878</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>880</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>881</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="91" t="s">
         <v>882</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -20331,19 +20331,19 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="G3" s="38" t="s">
         <v>890</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>891</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -6606,10 +6606,103 @@
     <t>Route Type</t>
   </si>
   <si>
+    <t>ash-drg</t>
+  </si>
+  <si>
+    <t>VCN::vcn01</t>
+  </si>
+  <si>
+    <t>vcn01-RT</t>
+  </si>
+  <si>
+    <t>vcn01-RD</t>
+  </si>
+  <si>
+    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
+  </si>
+  <si>
+    <t>DRG Route Rules will be exported here for DRGv2.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 Columns Region, Compartment Name, DRG Name, Attached To are mandatory.
 Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG Route Distribution Statements empty to use Autogenerated ones.
 Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
+Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2
@@ -6621,98 +6714,6 @@
                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
                                 Example: Operations.CostCenter=01;Users.Name=user01
 </t>
-  </si>
-  <si>
-    <t>ash-drg</t>
-  </si>
-  <si>
-    <t>VCN::vcn01</t>
-  </si>
-  <si>
-    <t>vcn01-RT</t>
-  </si>
-  <si>
-    <t>vcn01-RD</t>
-  </si>
-  <si>
-    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
-  </si>
-  <si>
-    <t>DRG Route Rules will be exported here for DRGv2.
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -9420,7 +9421,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="61" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -10037,7 +10038,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -20116,7 +20117,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -20272,8 +20273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20291,7 +20292,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="205" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -20331,19 +20332,19 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="38" t="s">
         <v>889</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="894">
   <si>
     <t>Region</t>
   </si>
@@ -6699,21 +6699,28 @@
   </si>
   <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-Columns Region, Compartment Name, DRG Name, Attached To are mandatory.
-Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG Route Distribution Statements empty to use Autogenerated ones.
-Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
-Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
+- Columns Region, Compartment Name, DRG Name are mandatory.
+- Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
+- Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
+- Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+  </si>
+  <si>
+    <t>"Attached To" - Valid format:
+VCN::&lt;vcn_name&gt;
+IPSEC_TUNNEL::&lt;OCID&gt;
+VIRTUAL_CIRCUIT::&lt;OCID&gt;
+REMOTE_PEERING_CONNECTION::&lt;OCID&gt;
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2
        DRG_ATTACHMENT_TYPE::IPSEC_TUNNEL::2
        DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
        DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
-       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01
-</t>
+       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
   </si>
 </sst>
 </file>
@@ -7213,7 +7220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7443,8 +7450,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9470,18 +9475,18 @@
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
       <c r="H1" s="95"/>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -12889,16 +12894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="117" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>877</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="93" t="s">
         <v>586</v>
       </c>
@@ -13351,27 +13356,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -14501,15 +14506,15 @@
       <c r="J1" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15174,14 +15179,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -15551,17 +15556,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>817</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -20028,7 +20033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -20274,7 +20279,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20283,23 +20288,25 @@
     <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" style="39" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.08984375" style="39" customWidth="1"/>
     <col min="8" max="18" width="8.7265625" style="39" customWidth="1"/>
     <col min="19" max="16384" width="8.7265625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="205" customHeight="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:7" ht="221" customHeight="1">
+      <c r="A1" s="93" t="s">
         <v>892</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
@@ -20591,8 +20598,9 @@
       <c r="G30" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -6711,9 +6711,6 @@
   <si>
     <t>"Attached To" - Valid format:
 VCN::&lt;vcn_name&gt;
-IPSEC_TUNNEL::&lt;OCID&gt;
-VIRTUAL_CIRCUIT::&lt;OCID&gt;
-REMOTE_PEERING_CONNECTION::&lt;OCID&gt;
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="912">
   <si>
     <t>Region</t>
   </si>
@@ -5148,9 +5148,6 @@
     <t>Allow group AppDevAdmins to read instance-images in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to manage repos in tenancy</t>
-  </si>
-  <si>
     <t>Allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
   </si>
   <si>
@@ -5313,21 +5310,9 @@
     <t>Policy allowing IAMAdmins group to manage IAM resources in tenancy, except changing Administrators group assignments.</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage users in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to inspect groups in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage groups in tenancy where target.group.name != 'Administrators'</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to inspect policies in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage policies in tenancy where target.policy.name != 'Tenant Admin Policy'</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage dynamic-groups in tenancy</t>
   </si>
   <si>
@@ -5337,9 +5322,6 @@
     <t>Allow group IAMAdmins to manage authentication-policies in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage identity-providers in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage network-sources in tenancy</t>
   </si>
   <si>
@@ -5349,9 +5331,6 @@
     <t>Allow group IAMAdmins to manage tag-namespaces in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage credentials in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage orm-stacks in tenancy</t>
   </si>
   <si>
@@ -5406,12 +5385,6 @@
     <t>Allow group SecurityAdmins to manage instance-family in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to manage policies in tenancy where all {target.policy.name != 'Tenant Admin Policy', target.policy.name != 'IAMAdmins-Policy'}</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage policies in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage vaults in compartment Security</t>
   </si>
   <si>
@@ -5424,9 +5397,6 @@
     <t>Allow group SecurityAdmins to manage logging-family in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
   </si>
   <si>
@@ -5445,18 +5415,6 @@
     <t>Allow group SecurityAdmins to manage security-zone in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage tag-namespaces in tenancy</t>
   </si>
   <si>
@@ -5493,15 +5451,6 @@
     <t>Allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
   </si>
   <si>
-    <t>CrossTenancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows Security Auditors to Read Stuff in my tenancy </t>
-  </si>
-  <si>
-    <t>Endorse group Administrators to read all-resources in any-tenancy</t>
-  </si>
-  <si>
     <t>10.110.2.0/24</t>
   </si>
   <si>
@@ -5644,9 +5593,6 @@
   </si>
   <si>
     <t>Allow Group DatabaseAdmins to read audit-events in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group IAMAdmins to read audit-events in tenancy</t>
   </si>
   <si>
     <t>Allow Group NetworkAdmins to read audit-events in compartment Network</t>
@@ -6718,6 +6664,114 @@
        DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
        DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
        DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
+  </si>
+  <si>
+    <t>Allow group AnnouncementReaders to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read vss-family in tenancy</t>
+  </si>
+  <si>
+    <t>CredAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for managing users credentials in the tenancy.</t>
+  </si>
+  <si>
+    <t>CredentialAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy for Credential Admins Group</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to inspect groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to manage users in tenancy  where any {request.operation = 'ListApiKeys',request.operation = 'ListAuthTokens',request.operation = 'ListCustomerSecretKeys',request.operation = 'UploadApiKey',request.operation = 'DeleteApiKey',request.operation = 'UpdateAuthToken',request.operation = 'CreateAuthToken',request.operation = 'DeleteAuthToken',request.operation = 'CreateSecretKey',request.operation = 'UpdateCustomerSecretKey',request.operation = 'DeleteCustomerSecretKey',request.operation = 'UpdateUserCapabilities'}</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage instance-images in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage repos in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage policies in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to inspect identity-providers in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage quota in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read vss-family in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to use vnics in compartment Network</t>
   </si>
 </sst>
 </file>
@@ -7217,7 +7271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7424,6 +7478,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9423,7 +9483,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="61" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -9462,28 +9522,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="101" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -9549,10 +9609,10 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>53</v>
@@ -9561,7 +9621,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>38</v>
@@ -9597,13 +9657,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>54</v>
@@ -9645,13 +9705,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>54</v>
@@ -10039,18 +10099,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>890</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -10060,25 +10120,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>435</v>
@@ -11623,17 +11683,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -11694,25 +11754,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -11801,28 +11861,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -11894,13 +11954,13 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>395</v>
@@ -11914,7 +11974,7 @@
         <v>396</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -11927,7 +11987,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -11940,13 +12000,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>395</v>
@@ -11955,7 +12015,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>31</v>
@@ -11973,7 +12033,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -11986,13 +12046,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>395</v>
@@ -12001,10 +12061,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -12019,7 +12079,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -12032,13 +12092,13 @@
         <v>355</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>395</v>
@@ -12052,7 +12112,7 @@
         <v>396</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -12065,7 +12125,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -12078,13 +12138,13 @@
         <v>355</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>395</v>
@@ -12093,10 +12153,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -12111,7 +12171,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -12124,13 +12184,13 @@
         <v>355</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>395</v>
@@ -12139,10 +12199,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -12157,7 +12217,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -12170,13 +12230,13 @@
         <v>355</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>395</v>
@@ -12190,7 +12250,7 @@
         <v>396</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -12203,7 +12263,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -12216,13 +12276,13 @@
         <v>355</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>395</v>
@@ -12233,10 +12293,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -12249,7 +12309,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -12262,13 +12322,13 @@
         <v>355</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>395</v>
@@ -12277,10 +12337,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -12295,7 +12355,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -12308,13 +12368,13 @@
         <v>355</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>395</v>
@@ -12323,10 +12383,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -12341,7 +12401,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -12354,13 +12414,13 @@
         <v>355</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>395</v>
@@ -12374,7 +12434,7 @@
         <v>396</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -12387,7 +12447,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -12400,13 +12460,13 @@
         <v>355</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>395</v>
@@ -12417,10 +12477,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -12433,7 +12493,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -12446,13 +12506,13 @@
         <v>355</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>395</v>
@@ -12461,10 +12521,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -12479,7 +12539,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -12492,13 +12552,13 @@
         <v>355</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>395</v>
@@ -12507,10 +12567,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -12525,7 +12585,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -12745,15 +12805,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -12891,26 +12951,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="117" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>877</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="93" t="s">
+      <c r="A1" s="102" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="95" t="s">
         <v>586</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -12993,13 +13053,13 @@
         <v>59</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="G4" s="63" t="b">
         <v>0</v>
@@ -13043,13 +13103,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
@@ -13087,13 +13147,13 @@
         <v>59</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>354</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
@@ -13131,13 +13191,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
@@ -13196,18 +13256,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -13263,7 +13323,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -13272,7 +13332,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>114</v>
@@ -13295,7 +13355,7 @@
         <v>336</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -13304,7 +13364,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>114</v>
@@ -13353,27 +13413,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -13473,7 +13533,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -13498,7 +13558,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -13522,7 +13582,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -13559,7 +13619,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -13592,7 +13652,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -13631,7 +13691,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -13668,7 +13728,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -13712,24 +13772,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="43.25" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -13940,13 +14000,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -14187,29 +14247,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="97"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -14489,29 +14549,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15176,14 +15236,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -15320,24 +15380,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15553,17 +15613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>817</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="A1" s="114" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -15576,19 +15636,19 @@
         <v>323</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>435</v>
@@ -15615,13 +15675,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F4" s="40">
         <v>1</v>
@@ -15630,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="I4" s="60" t="s">
         <v>455</v>
@@ -15645,13 +15705,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F5" s="40">
         <v>1</v>
@@ -15660,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="51"/>
@@ -15708,32 +15768,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="73" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>830</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="A1" s="95" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="76" customFormat="1" ht="43.5">
       <c r="A2" s="74" t="s">
@@ -15749,49 +15809,49 @@
         <v>88</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="F2" s="74" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K2" s="75" t="s">
         <v>411</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="M2" s="74" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="S2" s="74" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="T2" s="74" t="s">
         <v>326</v>
@@ -15800,10 +15860,10 @@
         <v>327</v>
       </c>
       <c r="V2" s="74" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="W2" s="74" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="X2" s="74" t="s">
         <v>435</v>
@@ -15845,13 +15905,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>340</v>
@@ -15866,25 +15926,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="N4" s="77" t="s">
         <v>412</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -15905,10 +15965,10 @@
         <v>15</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -15919,13 +15979,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>339</v>
@@ -15940,25 +16000,25 @@
         <v>256</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>413</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="M5" s="53" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="N5" s="77" t="s">
         <v>414</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>333</v>
@@ -15979,10 +16039,10 @@
         <v>15</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -16058,32 +16118,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="73" customFormat="1" ht="133.25" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>862</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="A1" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="76" customFormat="1" ht="29">
       <c r="A2" s="74" t="s">
@@ -16099,49 +16159,49 @@
         <v>88</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="F2" s="74" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K2" s="79" t="s">
         <v>411</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="M2" s="74" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="S2" s="74" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="T2" s="74" t="s">
         <v>326</v>
@@ -16150,10 +16210,10 @@
         <v>327</v>
       </c>
       <c r="V2" s="74" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="W2" s="74" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="X2" s="80" t="s">
         <v>435</v>
@@ -16195,13 +16255,13 @@
         <v>355</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>342</v>
@@ -16216,25 +16276,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>332</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -16255,7 +16315,7 @@
         <v>15</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="X4" s="38" t="s">
         <v>455</v>
@@ -16269,13 +16329,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>344</v>
@@ -16290,25 +16350,25 @@
         <v>256</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>413</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="M5" s="53" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="N5" s="53" t="s">
         <v>416</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>333</v>
@@ -16329,7 +16389,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="81" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="X5" s="40"/>
     </row>
@@ -16407,32 +16467,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="73" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>873</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="A1" s="95" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="76" customFormat="1" ht="29">
       <c r="A2" s="74" t="s">
@@ -16448,49 +16508,49 @@
         <v>88</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="G2" s="74" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K2" s="75" t="s">
         <v>411</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="M2" s="74" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="S2" s="74" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="T2" s="74" t="s">
         <v>326</v>
@@ -16499,10 +16559,10 @@
         <v>327</v>
       </c>
       <c r="V2" s="74" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="W2" s="74" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>435</v>
@@ -16543,16 +16603,16 @@
         <v>355</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>346</v>
@@ -16564,25 +16624,25 @@
         <v>256</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>331</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>332</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>333</v>
@@ -16603,7 +16663,7 @@
         <v>10</v>
       </c>
       <c r="W4" s="81" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="X4" s="38" t="s">
         <v>455</v>
@@ -17737,10 +17797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -17753,13 +17813,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -17861,16 +17921,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="92" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17885,10 +17958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -17903,16 +17976,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -17940,53 +18013,53 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>608</v>
-      </c>
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>609</v>
+        <v>876</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>608</v>
+      </c>
       <c r="E5" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -17998,7 +18071,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -18010,7 +18083,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -18022,7 +18095,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -18034,7 +18107,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -18046,7 +18119,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -18058,7 +18131,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -18070,7 +18143,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -18082,7 +18155,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -18094,7 +18167,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -18106,7 +18179,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -18118,7 +18191,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -18130,7 +18203,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -18142,7 +18215,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -18154,7 +18227,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -18166,31 +18239,31 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="21" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>789</v>
+        <v>625</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="22" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -18202,7 +18275,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>626</v>
+        <v>771</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -18214,7 +18287,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -18226,7 +18299,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -18238,19 +18311,19 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" s="39" customFormat="1">
+    <row r="27" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>630</v>
+        <v>887</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -18262,63 +18335,55 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>632</v>
+        <v>888</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="30" spans="1:8" s="39" customFormat="1">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>633</v>
+        <v>889</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="31" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>790</v>
+        <v>630</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>635</v>
-      </c>
+    <row r="32" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -18330,55 +18395,63 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="34" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>638</v>
+        <v>773</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
+    <row r="35" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>639</v>
+        <v>891</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
+    <row r="36" spans="1:8" s="39" customFormat="1">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>640</v>
+        <v>890</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+    <row r="37" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A37" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>634</v>
+      </c>
       <c r="E37" s="38" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -18390,7 +18463,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -18402,31 +18475,31 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="40" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="41" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -18438,39 +18511,31 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1">
+    <row r="43" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>791</v>
+        <v>641</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A44" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>648</v>
-      </c>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -18482,139 +18547,155 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" s="39" customFormat="1">
+    <row r="46" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" s="39" customFormat="1">
+    <row r="47" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="48" spans="1:8" s="39" customFormat="1">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>653</v>
+        <v>774</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="49" spans="1:8" s="39" customFormat="1">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>654</v>
+        <v>877</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="50" spans="1:8" s="39" customFormat="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>655</v>
+        <v>878</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" s="39" customFormat="1" ht="29">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>882</v>
+      </c>
       <c r="E51" s="38" t="s">
-        <v>656</v>
+        <v>883</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="52" spans="1:8" s="39" customFormat="1">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>657</v>
+        <v>884</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" s="39" customFormat="1">
+    <row r="53" spans="1:8" s="39" customFormat="1" ht="203">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>658</v>
+        <v>885</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="54" spans="1:8" s="39" customFormat="1">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>659</v>
+        <v>886</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" s="39" customFormat="1">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+    <row r="55" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A55" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>647</v>
+      </c>
       <c r="E55" s="38" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1">
+    <row r="56" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -18626,19 +18707,19 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="58" spans="1:8" s="39" customFormat="1">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -18650,135 +18731,127 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1">
-      <c r="A61" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>667</v>
-      </c>
+    <row r="61" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="62" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="63" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="64" spans="1:8" s="39" customFormat="1">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="65" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="66" spans="1:8" s="39" customFormat="1">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>794</v>
+        <v>659</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="67" spans="1:8" s="39" customFormat="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="68" spans="1:8" s="39" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="69" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -18790,7 +18863,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -18802,19 +18875,27 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
     </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
+    <row r="72" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1">
+      <c r="A72" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>666</v>
+      </c>
       <c r="E72" s="38" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -18826,7 +18907,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -18838,7 +18919,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -18850,7 +18931,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -18862,7 +18943,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -18874,39 +18955,31 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
     </row>
-    <row r="78" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
-      <c r="A78" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>684</v>
-      </c>
+    <row r="78" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
     </row>
-    <row r="79" spans="1:8" s="39" customFormat="1">
+    <row r="79" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -18918,19 +18991,19 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" s="39" customFormat="1">
+    <row r="81" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -18942,7 +19015,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -18954,7 +19027,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -18966,7 +19039,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -18978,7 +19051,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -18990,7 +19063,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -19002,7 +19075,7 @@
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -19014,19 +19087,19 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="89" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>696</v>
+        <v>907</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -19038,31 +19111,39 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>697</v>
+        <v>892</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" ht="29">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+    <row r="91" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
+      <c r="A91" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>683</v>
+      </c>
       <c r="E91" s="38" t="s">
-        <v>698</v>
+        <v>893</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" s="39" customFormat="1">
+    <row r="92" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -19074,39 +19155,31 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1">
+    <row r="94" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
-      <c r="A95" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>702</v>
-      </c>
+    <row r="95" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -19118,7 +19191,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -19130,7 +19203,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -19142,7 +19215,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>706</v>
+        <v>894</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -19154,7 +19227,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -19166,19 +19239,19 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>708</v>
+        <v>895</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="101" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>709</v>
+        <v>896</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -19190,19 +19263,19 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>710</v>
+        <v>897</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="103" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -19214,83 +19287,75 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>797</v>
+        <v>687</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" ht="72.5">
-      <c r="A105" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="38" t="s">
-        <v>800</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>798</v>
-      </c>
+    <row r="105" spans="1:8" s="39" customFormat="1" ht="29">
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
-        <v>799</v>
+        <v>688</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
-      <c r="A106" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C106" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>713</v>
-      </c>
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="38" t="s">
-        <v>714</v>
+        <v>898</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="107" spans="1:8" s="39" customFormat="1">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>715</v>
+        <v>899</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
+    <row r="108" spans="1:8" s="39" customFormat="1">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>716</v>
+        <v>900</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
+      <c r="A109" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>695</v>
+      </c>
       <c r="E109" s="38" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -19302,7 +19367,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -19314,7 +19379,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -19326,7 +19391,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -19338,7 +19403,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -19350,7 +19415,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -19362,7 +19427,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -19374,7 +19439,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -19386,67 +19451,83 @@
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
     </row>
-    <row r="118" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="118" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
     </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="119" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A119" s="38"/>
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>727</v>
+        <v>906</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
     </row>
-    <row r="120" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="120" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>728</v>
+        <v>901</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
     </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
+    <row r="121" spans="1:8" s="39" customFormat="1" ht="72.5">
+      <c r="A121" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>780</v>
+      </c>
       <c r="E121" s="38" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
     </row>
-    <row r="122" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
+    <row r="122" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
+      <c r="A122" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="93" t="s">
+        <v>705</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>706</v>
+      </c>
       <c r="E122" s="38" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -19458,19 +19539,19 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
     </row>
-    <row r="124" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+    <row r="124" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>732</v>
+        <v>902</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -19482,7 +19563,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -19494,7 +19575,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -19506,31 +19587,31 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
     </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" ht="29">
+    <row r="128" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
     </row>
-    <row r="129" spans="1:8" s="39" customFormat="1">
+    <row r="129" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -19542,7 +19623,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -19554,7 +19635,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -19566,19 +19647,19 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
     </row>
-    <row r="133" spans="1:8" s="39" customFormat="1">
+    <row r="133" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A133" s="38"/>
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -19590,7 +19671,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -19602,7 +19683,7 @@
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -19614,31 +19695,225 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A137" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>746</v>
-      </c>
+    <row r="137" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
+    </row>
+    <row r="138" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+    </row>
+    <row r="139" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+    </row>
+    <row r="140" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+    </row>
+    <row r="141" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+    </row>
+    <row r="142" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38" t="s">
+        <v>909</v>
+      </c>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+    </row>
+    <row r="143" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38" t="s">
+        <v>910</v>
+      </c>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+    </row>
+    <row r="144" spans="1:8" s="39" customFormat="1" ht="29">
+      <c r="A144" s="38"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+    </row>
+    <row r="145" spans="1:8" s="39" customFormat="1" ht="29">
+      <c r="A145" s="38"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+    </row>
+    <row r="146" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A146" s="38"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="F146" s="38"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+    </row>
+    <row r="147" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A147" s="38"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="F147" s="38"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+    </row>
+    <row r="148" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38" t="s">
+        <v>905</v>
+      </c>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+    </row>
+    <row r="149" spans="1:8" s="39" customFormat="1" ht="29">
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="F149" s="38"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="38"/>
+    </row>
+    <row r="150" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A150" s="38"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="F150" s="38"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="38"/>
+    </row>
+    <row r="151" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A151" s="38"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="38"/>
+    </row>
+    <row r="152" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A152" s="38"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="38"/>
+    </row>
+    <row r="153" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
+      <c r="A153" s="38"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38" t="s">
+        <v>904</v>
+      </c>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+    </row>
+    <row r="154" spans="1:8" s="39" customFormat="1" ht="60" customHeight="1">
+      <c r="A154" s="38"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19671,20 +19946,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
@@ -19726,16 +20001,16 @@
         <v>406</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -19745,7 +20020,7 @@
         <v>406</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29">
@@ -19756,16 +20031,16 @@
         <v>406</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -19775,7 +20050,7 @@
         <v>406</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20050,22 +20325,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="93" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -20113,13 +20388,13 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -20134,7 +20409,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -20293,17 +20568,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="221" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>892</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="93" t="s">
-        <v>893</v>
-      </c>
-      <c r="G1" s="94"/>
+      <c r="A1" s="95" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="95" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
@@ -20313,19 +20588,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -20336,19 +20611,19 @@
         <v>355</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
@@ -20621,10 +20896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -20694,16 +20969,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -20739,7 +21014,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>38</v>
@@ -20748,7 +21023,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="912">
   <si>
     <t>Region</t>
   </si>
@@ -7271,7 +7271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7549,6 +7549,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11839,8 +11840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11948,7 +11949,7 @@
     </row>
     <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>355</v>
@@ -11994,7 +11995,7 @@
     </row>
     <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>355</v>
@@ -12040,7 +12041,7 @@
     </row>
     <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>355</v>
@@ -12086,7 +12087,7 @@
     </row>
     <row r="6" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A6" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>355</v>
@@ -12132,7 +12133,7 @@
     </row>
     <row r="7" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A7" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>355</v>
@@ -12178,7 +12179,7 @@
     </row>
     <row r="8" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A8" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>355</v>
@@ -12224,7 +12225,7 @@
     </row>
     <row r="9" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A9" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>355</v>
@@ -12270,7 +12271,7 @@
     </row>
     <row r="10" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A10" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>355</v>
@@ -12316,7 +12317,7 @@
     </row>
     <row r="11" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A11" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>355</v>
@@ -12362,7 +12363,7 @@
     </row>
     <row r="12" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A12" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>355</v>
@@ -12408,7 +12409,7 @@
     </row>
     <row r="13" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A13" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>355</v>
@@ -12454,7 +12455,7 @@
     </row>
     <row r="14" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A14" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>355</v>
@@ -12500,7 +12501,7 @@
     </row>
     <row r="15" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A15" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>355</v>
@@ -12546,7 +12547,7 @@
     </row>
     <row r="16" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A16" s="38" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>355</v>
@@ -20551,7 +20552,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20603,7 +20604,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>324</v>
       </c>
@@ -20626,8 +20627,10 @@
         <v>871</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -20635,7 +20638,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:7" ht="94.5" customHeight="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -20644,77 +20647,77 @@
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
     </row>
-    <row r="6" spans="1:7" ht="77" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+    <row r="6" spans="1:7" s="115" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="115" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" s="115" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" s="115" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7" s="115" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" s="115" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" s="115" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" s="115" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="38"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5587F-6B95-5D4D-8759-79FBE5544392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -6784,11 +6783,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9266,23 +9265,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9318,23 +9300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9510,20 +9475,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="61" t="s">
         <v>871</v>
       </c>
@@ -9535,35 +9500,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="39" customWidth="1"/>
     <col min="17" max="17" width="10" style="39" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>442</v>
       </c>
@@ -9587,7 +9552,7 @@
       <c r="Q1" s="102"/>
       <c r="R1" s="102"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9643,7 +9608,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="39" customFormat="1">
       <c r="A3" s="39" t="s">
         <v>322</v>
       </c>
@@ -9691,7 +9656,7 @@
       <c r="Q3" s="68"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="39" customFormat="1">
       <c r="A4" s="39" t="s">
         <v>322</v>
       </c>
@@ -9739,7 +9704,7 @@
       <c r="Q4" s="68"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="39" customFormat="1">
       <c r="A5" s="39" t="s">
         <v>322</v>
       </c>
@@ -9787,7 +9752,7 @@
       <c r="Q5" s="68"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -9808,7 +9773,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="31.75" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -9860,7 +9825,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -9908,7 +9873,7 @@
       <c r="Q8" s="66"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="28.75" customHeight="1">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -9956,7 +9921,7 @@
       <c r="Q9" s="66"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -10006,7 +9971,7 @@
       <c r="Q10" s="66"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -10056,7 +10021,7 @@
       <c r="Q11" s="66"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -10117,30 +10082,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="39" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="39"/>
+    <col min="1" max="1" width="8.6328125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="8.6328125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>870</v>
       </c>
@@ -10154,7 +10119,7 @@
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10187,7 +10152,7 @@
       </c>
       <c r="K2" s="76"/>
     </row>
-    <row r="3" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="58" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -10200,7 +10165,7 @@
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="58" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -10213,7 +10178,7 @@
       <c r="J4" s="38"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="58" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -10226,7 +10191,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="58" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -10239,7 +10204,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="58" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -10252,7 +10217,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="58" customHeight="1">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -10265,7 +10230,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="58" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -10278,7 +10243,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="58" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -10291,7 +10256,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="40"/>
     </row>
-    <row r="11" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="58" customHeight="1">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -10304,7 +10269,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="40"/>
     </row>
-    <row r="12" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="58" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -10317,7 +10282,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="40"/>
     </row>
-    <row r="13" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="58" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -10330,7 +10295,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="40"/>
     </row>
-    <row r="14" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="58" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -10343,7 +10308,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="40"/>
     </row>
-    <row r="15" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="58" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -10356,7 +10321,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="40"/>
     </row>
-    <row r="16" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="58" customHeight="1">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -10369,7 +10334,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="58" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -10382,7 +10347,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="29" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -10395,7 +10360,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="29" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -10408,7 +10373,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="29" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -10421,7 +10386,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="58" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -10434,7 +10399,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="58" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -10447,7 +10412,7 @@
       <c r="J22" s="38"/>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="58" customHeight="1">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -10460,7 +10425,7 @@
       <c r="J23" s="38"/>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="58" customHeight="1">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -10473,7 +10438,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="58" customHeight="1">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -10486,7 +10451,7 @@
       <c r="J25" s="38"/>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="58" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -10499,7 +10464,7 @@
       <c r="J26" s="38"/>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="58" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -10512,7 +10477,7 @@
       <c r="J27" s="38"/>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="58" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -10525,7 +10490,7 @@
       <c r="J28" s="38"/>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58" customHeight="1">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -10538,7 +10503,7 @@
       <c r="J29" s="38"/>
       <c r="K29" s="40"/>
     </row>
-    <row r="30" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="58" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -10551,7 +10516,7 @@
       <c r="J30" s="38"/>
       <c r="K30" s="40"/>
     </row>
-    <row r="31" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="58" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -10564,7 +10529,7 @@
       <c r="J31" s="38"/>
       <c r="K31" s="40"/>
     </row>
-    <row r="32" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="58" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -10577,7 +10542,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="40"/>
     </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="58" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -10590,7 +10555,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="40"/>
     </row>
-    <row r="34" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="58" customHeight="1">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -10603,7 +10568,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="40"/>
     </row>
-    <row r="35" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="58" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
@@ -10616,7 +10581,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="40"/>
     </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="58" customHeight="1">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -10629,7 +10594,7 @@
       <c r="J36" s="38"/>
       <c r="K36" s="40"/>
     </row>
-    <row r="37" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="58" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -10642,7 +10607,7 @@
       <c r="J37" s="38"/>
       <c r="K37" s="40"/>
     </row>
-    <row r="38" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="58" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -10655,7 +10620,7 @@
       <c r="J38" s="38"/>
       <c r="K38" s="40"/>
     </row>
-    <row r="39" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="58" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -10668,7 +10633,7 @@
       <c r="J39" s="38"/>
       <c r="K39" s="40"/>
     </row>
-    <row r="40" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="58" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -10681,7 +10646,7 @@
       <c r="J40" s="38"/>
       <c r="K40" s="40"/>
     </row>
-    <row r="41" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="58" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -10694,7 +10659,7 @@
       <c r="J41" s="38"/>
       <c r="K41" s="40"/>
     </row>
-    <row r="42" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="58" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -10707,7 +10672,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="40"/>
     </row>
-    <row r="43" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="58" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -10720,7 +10685,7 @@
       <c r="J43" s="38"/>
       <c r="K43" s="40"/>
     </row>
-    <row r="44" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="58" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -10733,7 +10698,7 @@
       <c r="J44" s="38"/>
       <c r="K44" s="40"/>
     </row>
-    <row r="45" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="58" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -10746,7 +10711,7 @@
       <c r="J45" s="38"/>
       <c r="K45" s="40"/>
     </row>
-    <row r="46" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="58" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -10759,7 +10724,7 @@
       <c r="J46" s="38"/>
       <c r="K46" s="40"/>
     </row>
-    <row r="47" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="58" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -10772,7 +10737,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="40"/>
     </row>
-    <row r="48" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="58" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -10785,7 +10750,7 @@
       <c r="J48" s="38"/>
       <c r="K48" s="40"/>
     </row>
-    <row r="49" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="58" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -10798,7 +10763,7 @@
       <c r="J49" s="38"/>
       <c r="K49" s="40"/>
     </row>
-    <row r="50" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="58" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -10811,7 +10776,7 @@
       <c r="J50" s="38"/>
       <c r="K50" s="40"/>
     </row>
-    <row r="51" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="58" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -10824,7 +10789,7 @@
       <c r="J51" s="38"/>
       <c r="K51" s="40"/>
     </row>
-    <row r="52" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="58" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -10837,7 +10802,7 @@
       <c r="J52" s="38"/>
       <c r="K52" s="40"/>
     </row>
-    <row r="53" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="58" customHeight="1">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -10850,7 +10815,7 @@
       <c r="J53" s="38"/>
       <c r="K53" s="40"/>
     </row>
-    <row r="54" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="58" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -10863,7 +10828,7 @@
       <c r="J54" s="38"/>
       <c r="K54" s="40"/>
     </row>
-    <row r="55" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="58" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -10876,7 +10841,7 @@
       <c r="J55" s="38"/>
       <c r="K55" s="40"/>
     </row>
-    <row r="56" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="58" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -10889,7 +10854,7 @@
       <c r="J56" s="38"/>
       <c r="K56" s="40"/>
     </row>
-    <row r="57" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="58" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -10902,7 +10867,7 @@
       <c r="J57" s="38"/>
       <c r="K57" s="40"/>
     </row>
-    <row r="58" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="58" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -10915,7 +10880,7 @@
       <c r="J58" s="38"/>
       <c r="K58" s="40"/>
     </row>
-    <row r="59" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="58" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -10928,7 +10893,7 @@
       <c r="J59" s="38"/>
       <c r="K59" s="40"/>
     </row>
-    <row r="60" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="58" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -10941,7 +10906,7 @@
       <c r="J60" s="38"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="58" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -10954,7 +10919,7 @@
       <c r="J61" s="38"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="58" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -10967,7 +10932,7 @@
       <c r="J62" s="38"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="58" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -10980,7 +10945,7 @@
       <c r="J63" s="38"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="58" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -10993,7 +10958,7 @@
       <c r="J64" s="38"/>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="58" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -11006,7 +10971,7 @@
       <c r="J65" s="38"/>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="58" customHeight="1">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -11019,7 +10984,7 @@
       <c r="J66" s="38"/>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="58" customHeight="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -11032,7 +10997,7 @@
       <c r="J67" s="38"/>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="58" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -11045,7 +11010,7 @@
       <c r="J68" s="38"/>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="58" customHeight="1">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -11058,7 +11023,7 @@
       <c r="J69" s="38"/>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="58" customHeight="1">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -11071,7 +11036,7 @@
       <c r="J70" s="38"/>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="58" customHeight="1">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -11084,7 +11049,7 @@
       <c r="J71" s="38"/>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="58" customHeight="1">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -11097,7 +11062,7 @@
       <c r="J72" s="38"/>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="58" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -11110,7 +11075,7 @@
       <c r="J73" s="38"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="58" customHeight="1">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -11123,7 +11088,7 @@
       <c r="J74" s="38"/>
       <c r="K74" s="40"/>
     </row>
-    <row r="75" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="58" customHeight="1">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -11136,7 +11101,7 @@
       <c r="J75" s="38"/>
       <c r="K75" s="40"/>
     </row>
-    <row r="76" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="58" customHeight="1">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -11149,7 +11114,7 @@
       <c r="J76" s="38"/>
       <c r="K76" s="40"/>
     </row>
-    <row r="77" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="58" customHeight="1">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -11162,7 +11127,7 @@
       <c r="J77" s="38"/>
       <c r="K77" s="40"/>
     </row>
-    <row r="78" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="58" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -11175,7 +11140,7 @@
       <c r="J78" s="38"/>
       <c r="K78" s="40"/>
     </row>
-    <row r="79" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="58" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -11188,7 +11153,7 @@
       <c r="J79" s="38"/>
       <c r="K79" s="40"/>
     </row>
-    <row r="80" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="58" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -11201,7 +11166,7 @@
       <c r="J80" s="38"/>
       <c r="K80" s="40"/>
     </row>
-    <row r="81" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="58" customHeight="1">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -11214,7 +11179,7 @@
       <c r="J81" s="38"/>
       <c r="K81" s="40"/>
     </row>
-    <row r="82" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="58" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -11227,7 +11192,7 @@
       <c r="J82" s="38"/>
       <c r="K82" s="40"/>
     </row>
-    <row r="83" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="58" customHeight="1">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -11240,7 +11205,7 @@
       <c r="J83" s="38"/>
       <c r="K83" s="40"/>
     </row>
-    <row r="84" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="58" customHeight="1">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -11253,7 +11218,7 @@
       <c r="J84" s="38"/>
       <c r="K84" s="40"/>
     </row>
-    <row r="85" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="58" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -11266,7 +11231,7 @@
       <c r="J85" s="38"/>
       <c r="K85" s="40"/>
     </row>
-    <row r="86" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="58" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -11279,7 +11244,7 @@
       <c r="J86" s="38"/>
       <c r="K86" s="40"/>
     </row>
-    <row r="87" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="58" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -11292,7 +11257,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="40"/>
     </row>
-    <row r="88" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="58" customHeight="1">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -11305,7 +11270,7 @@
       <c r="J88" s="38"/>
       <c r="K88" s="40"/>
     </row>
-    <row r="89" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="58" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -11318,7 +11283,7 @@
       <c r="J89" s="38"/>
       <c r="K89" s="40"/>
     </row>
-    <row r="90" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="58" customHeight="1">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -11331,7 +11296,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="40"/>
     </row>
-    <row r="91" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="58" customHeight="1">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -11344,7 +11309,7 @@
       <c r="J91" s="38"/>
       <c r="K91" s="40"/>
     </row>
-    <row r="92" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="58" customHeight="1">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -11357,7 +11322,7 @@
       <c r="J92" s="38"/>
       <c r="K92" s="40"/>
     </row>
-    <row r="93" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="58" customHeight="1">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -11370,7 +11335,7 @@
       <c r="J93" s="38"/>
       <c r="K93" s="40"/>
     </row>
-    <row r="94" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="58" customHeight="1">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -11383,7 +11348,7 @@
       <c r="J94" s="38"/>
       <c r="K94" s="40"/>
     </row>
-    <row r="95" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="58" customHeight="1">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -11396,7 +11361,7 @@
       <c r="J95" s="38"/>
       <c r="K95" s="40"/>
     </row>
-    <row r="96" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="58" customHeight="1">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -11409,7 +11374,7 @@
       <c r="J96" s="38"/>
       <c r="K96" s="40"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -11422,7 +11387,7 @@
       <c r="J97" s="38"/>
       <c r="K97" s="40"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -11435,7 +11400,7 @@
       <c r="J98" s="38"/>
       <c r="K98" s="40"/>
     </row>
-    <row r="99" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="29" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -11448,7 +11413,7 @@
       <c r="J99" s="38"/>
       <c r="K99" s="40"/>
     </row>
-    <row r="100" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="29" customHeight="1">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -11461,7 +11426,7 @@
       <c r="J100" s="38"/>
       <c r="K100" s="40"/>
     </row>
-    <row r="101" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="29" customHeight="1">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11474,7 +11439,7 @@
       <c r="J101" s="38"/>
       <c r="K101" s="40"/>
     </row>
-    <row r="102" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="29" customHeight="1">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
@@ -11487,7 +11452,7 @@
       <c r="J102" s="38"/>
       <c r="K102" s="40"/>
     </row>
-    <row r="103" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="29" customHeight="1">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
@@ -11500,7 +11465,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="40"/>
     </row>
-    <row r="104" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="29" customHeight="1">
       <c r="A104" s="38"/>
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
@@ -11513,7 +11478,7 @@
       <c r="J104" s="38"/>
       <c r="K104" s="40"/>
     </row>
-    <row r="105" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="29" customHeight="1">
       <c r="A105" s="38"/>
       <c r="B105" s="38"/>
       <c r="C105" s="38"/>
@@ -11526,7 +11491,7 @@
       <c r="J105" s="38"/>
       <c r="K105" s="40"/>
     </row>
-    <row r="106" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="29" customHeight="1">
       <c r="A106" s="38"/>
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
@@ -11539,7 +11504,7 @@
       <c r="J106" s="38"/>
       <c r="K106" s="40"/>
     </row>
-    <row r="107" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="29" customHeight="1">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
@@ -11552,7 +11517,7 @@
       <c r="J107" s="38"/>
       <c r="K107" s="40"/>
     </row>
-    <row r="108" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="29" customHeight="1">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
@@ -11565,7 +11530,7 @@
       <c r="J108" s="38"/>
       <c r="K108" s="40"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="38"/>
       <c r="B109" s="38"/>
       <c r="C109" s="38"/>
@@ -11578,7 +11543,7 @@
       <c r="J109" s="38"/>
       <c r="K109" s="40"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
@@ -11591,7 +11556,7 @@
       <c r="J110" s="38"/>
       <c r="K110" s="40"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
@@ -11604,7 +11569,7 @@
       <c r="J111" s="38"/>
       <c r="K111" s="40"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
@@ -11617,7 +11582,7 @@
       <c r="J112" s="38"/>
       <c r="K112" s="40"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
@@ -11630,7 +11595,7 @@
       <c r="J113" s="38"/>
       <c r="K113" s="40"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
@@ -11643,7 +11608,7 @@
       <c r="J114" s="38"/>
       <c r="K114" s="40"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
@@ -11656,7 +11621,7 @@
       <c r="J115" s="38"/>
       <c r="K115" s="40"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
@@ -11669,7 +11634,7 @@
       <c r="J116" s="38"/>
       <c r="K116" s="40"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
@@ -11682,7 +11647,7 @@
       <c r="J117" s="38"/>
       <c r="K117" s="40"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
@@ -11704,27 +11669,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="39" customWidth="1"/>
     <col min="5" max="5" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>450</v>
       </c>
@@ -11737,7 +11702,7 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -11776,26 +11741,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>451</v>
       </c>
@@ -11816,7 +11781,7 @@
       <c r="P1" s="95"/>
       <c r="Q1" s="95"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -11878,31 +11843,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="91" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="39" customWidth="1"/>
     <col min="11" max="11" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>458</v>
       </c>
@@ -11926,7 +11891,7 @@
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11988,7 +11953,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>322</v>
       </c>
@@ -12034,7 +11999,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>322</v>
       </c>
@@ -12080,7 +12045,7 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
     </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>322</v>
       </c>
@@ -12126,7 +12091,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
     </row>
-    <row r="6" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A6" s="38" t="s">
         <v>322</v>
       </c>
@@ -12172,7 +12137,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
     </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A7" s="38" t="s">
         <v>322</v>
       </c>
@@ -12218,7 +12183,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
     </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A8" s="38" t="s">
         <v>322</v>
       </c>
@@ -12264,7 +12229,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A9" s="38" t="s">
         <v>322</v>
       </c>
@@ -12310,7 +12275,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
     </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A10" s="38" t="s">
         <v>322</v>
       </c>
@@ -12356,7 +12321,7 @@
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A11" s="38" t="s">
         <v>322</v>
       </c>
@@ -12402,7 +12367,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A12" s="38" t="s">
         <v>322</v>
       </c>
@@ -12448,7 +12413,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="29">
       <c r="A13" s="38" t="s">
         <v>322</v>
       </c>
@@ -12494,7 +12459,7 @@
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A14" s="38" t="s">
         <v>322</v>
       </c>
@@ -12540,7 +12505,7 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A15" s="38" t="s">
         <v>322</v>
       </c>
@@ -12586,7 +12551,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="43.5">
       <c r="A16" s="38" t="s">
         <v>322</v>
       </c>
@@ -12632,7 +12597,7 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
@@ -12656,7 +12621,7 @@
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
     </row>
-    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1">
       <c r="A18" s="63" t="s">
         <v>5</v>
       </c>
@@ -12697,7 +12662,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1">
       <c r="A19" s="63" t="s">
         <v>5</v>
       </c>
@@ -12739,7 +12704,7 @@
       <c r="Q19" s="66"/>
       <c r="R19" s="64"/>
     </row>
-    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1">
       <c r="A20" s="63" t="s">
         <v>5</v>
       </c>
@@ -12777,7 +12742,7 @@
       <c r="Q20" s="66"/>
       <c r="R20" s="64"/>
     </row>
-    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1">
       <c r="A21" s="63" t="s">
         <v>5</v>
       </c>
@@ -12829,24 +12794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>459</v>
       </c>
@@ -12857,7 +12822,7 @@
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -12880,7 +12845,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -12891,7 +12856,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -12914,7 +12879,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -12935,7 +12900,7 @@
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -12965,34 +12930,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="39" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="117" customHeight="1">
       <c r="A1" s="103" t="s">
         <v>857</v>
       </c>
@@ -13014,7 +12979,7 @@
       <c r="O1" s="97"/>
       <c r="P1" s="98"/>
     </row>
-    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -13064,7 +13029,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="28.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -13084,7 +13049,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
@@ -13134,7 +13099,7 @@
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -13178,7 +13143,7 @@
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -13222,7 +13187,7 @@
       <c r="Q6" s="63"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -13277,27 +13242,27 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
     <col min="2" max="2" width="23" style="39" customWidth="1"/>
     <col min="3" max="3" width="17" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>585</v>
       </c>
@@ -13311,7 +13276,7 @@
       <c r="I1" s="97"/>
       <c r="J1" s="98"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13343,7 +13308,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -13357,7 +13322,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
@@ -13389,7 +13354,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -13427,34 +13392,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" customWidth="1"/>
     <col min="7" max="7" width="15" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="16" style="39" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="39" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="106" t="s">
         <v>466</v>
       </c>
@@ -13477,7 +13442,7 @@
       <c r="P1" s="109"/>
       <c r="Q1" s="109"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -13530,7 +13495,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -13551,7 +13516,7 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -13590,7 +13555,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="30"/>
       <c r="B5" s="40"/>
       <c r="C5" s="30"/>
@@ -13615,7 +13580,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -13639,7 +13604,7 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -13672,7 +13637,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -13711,7 +13676,7 @@
       </c>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -13748,7 +13713,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -13792,28 +13757,28 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="39" customWidth="1"/>
-    <col min="4" max="6" width="16.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="39" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="25" style="39" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="39" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="28.1796875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="122.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>452</v>
       </c>
@@ -13835,7 +13800,7 @@
       <c r="Q1" s="95"/>
       <c r="R1" s="95"/>
     </row>
-    <row r="2" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="58">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -13891,7 +13856,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.25" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -13913,7 +13878,7 @@
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="65.5" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -13963,7 +13928,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="37.25" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -13989,7 +13954,7 @@
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="43.25" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -14045,23 +14010,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>445</v>
       </c>
@@ -14070,7 +14035,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -14087,7 +14052,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
@@ -14102,7 +14067,7 @@
       </c>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
@@ -14117,7 +14082,7 @@
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -14132,7 +14097,7 @@
       </c>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
@@ -14147,7 +14112,7 @@
       </c>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
@@ -14156,7 +14121,7 @@
       <c r="D7" s="38"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -14169,7 +14134,7 @@
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -14184,7 +14149,7 @@
       </c>
       <c r="E9" s="63"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -14199,7 +14164,7 @@
       </c>
       <c r="E10" s="63"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -14212,7 +14177,7 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -14227,7 +14192,7 @@
       </c>
       <c r="E12" s="63"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
@@ -14242,7 +14207,7 @@
       </c>
       <c r="E13" s="63"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
@@ -14257,7 +14222,7 @@
       </c>
       <c r="E14" s="63"/>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -14284,31 +14249,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="39" customWidth="1"/>
     <col min="3" max="3" width="11" style="39" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="39" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="18" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="39" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="39" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>472</v>
       </c>
@@ -14333,7 +14298,7 @@
       <c r="T1" s="97"/>
       <c r="U1" s="98"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -14398,7 +14363,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -14423,7 +14388,7 @@
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -14486,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -14529,7 +14494,7 @@
       <c r="T5" s="40"/>
       <c r="U5" s="40"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -14586,31 +14551,31 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="39" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="39" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="39" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>443</v>
       </c>
@@ -14635,7 +14600,7 @@
       <c r="R1" s="110"/>
       <c r="S1" s="111"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -14694,7 +14659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -14717,7 +14682,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -14750,7 +14715,7 @@
       </c>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -14773,7 +14738,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -14796,7 +14761,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -14819,7 +14784,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -14842,7 +14807,7 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -14869,7 +14834,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -14898,7 +14863,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -14933,7 +14898,7 @@
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -14968,7 +14933,7 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -14995,7 +14960,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -15022,7 +14987,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -15047,7 +15012,7 @@
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -15074,7 +15039,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -15099,7 +15064,7 @@
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -15126,7 +15091,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -15147,7 +15112,7 @@
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40" t="s">
@@ -15174,7 +15139,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -15197,7 +15162,7 @@
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="40" t="s">
         <v>5</v>
       </c>
@@ -15228,7 +15193,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -15257,47 +15222,47 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1400-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1400-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1400-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1400-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
       <c r="A1" s="112" t="s">
         <v>444</v>
       </c>
@@ -15307,7 +15272,7 @@
       <c r="E1" s="113"/>
       <c r="F1" s="114"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -15327,7 +15292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -15337,7 +15302,7 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -15357,7 +15322,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -15371,7 +15336,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
@@ -15387,7 +15352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
@@ -15412,7 +15377,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -15421,27 +15386,27 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="15" style="39" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>471</v>
       </c>
@@ -15461,7 +15426,7 @@
       <c r="O1" s="95"/>
       <c r="P1" s="95"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15511,7 +15476,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -15531,7 +15496,7 @@
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -15573,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
@@ -15601,7 +15566,7 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -15653,28 +15618,28 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="39"/>
+    <col min="3" max="3" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="39"/>
     <col min="8" max="8" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="39"/>
+    <col min="9" max="9" width="13.81640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="115" t="s">
         <v>797</v>
       </c>
@@ -15687,7 +15652,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="115"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15716,7 +15681,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
@@ -15729,7 +15694,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="58">
       <c r="A4" s="40" t="s">
         <v>322</v>
       </c>
@@ -15759,7 +15724,7 @@
       </c>
       <c r="J4" s="51"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="40" t="s">
         <v>322</v>
       </c>
@@ -15797,39 +15762,39 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="39" customWidth="1"/>
     <col min="2" max="2" width="14" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="13" style="39" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="78" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="39"/>
-    <col min="14" max="14" width="20.5" style="3"/>
-    <col min="15" max="17" width="20.5" style="39"/>
+    <col min="10" max="10" width="16.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="78" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="39"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="39"/>
     <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5" style="39"/>
-    <col min="22" max="22" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="39" customWidth="1"/>
-    <col min="24" max="24" width="20.5" style="39"/>
-    <col min="25" max="25" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5" style="39"/>
+    <col min="19" max="21" width="20.453125" style="39"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="39"/>
+    <col min="25" max="25" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="73" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>810</v>
       </c>
@@ -15857,7 +15822,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="76" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="43.5">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -15931,7 +15896,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
@@ -15959,7 +15924,7 @@
       <c r="W3" s="40"/>
       <c r="X3" s="40"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="53" t="s">
         <v>322</v>
       </c>
@@ -16033,7 +15998,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="53" t="s">
         <v>322</v>
       </c>
@@ -16112,25 +16077,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1800-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1800-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -16140,46 +16105,46 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="78" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="78" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="39" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="39" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="39" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="39"/>
+    <col min="27" max="27" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="73" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="133.25" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>842</v>
       </c>
@@ -16207,7 +16172,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="29">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -16281,7 +16246,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
@@ -16309,7 +16274,7 @@
       <c r="W3" s="40"/>
       <c r="X3" s="40"/>
     </row>
-    <row r="4" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="58">
       <c r="A4" s="53" t="s">
         <v>322</v>
       </c>
@@ -16383,7 +16348,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="53" t="s">
         <v>322</v>
       </c>
@@ -16460,28 +16425,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -16491,44 +16456,44 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="39" customWidth="1"/>
-    <col min="24" max="25" width="14.5" style="39" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="39"/>
+    <col min="19" max="19" width="13.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="39" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="39" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="73" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="73" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>853</v>
       </c>
@@ -16556,7 +16521,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="29">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -16630,7 +16595,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="84" customFormat="1">
       <c r="A3" s="82" t="s">
         <v>4</v>
       </c>
@@ -16657,7 +16622,7 @@
       <c r="W3" s="83"/>
       <c r="X3" s="71"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
@@ -16731,7 +16696,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="87"/>
       <c r="B5" s="51"/>
       <c r="C5" s="88"/>
@@ -16742,22 +16707,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1A00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -16767,24 +16732,24 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>256</v>
       </c>
@@ -16804,7 +16769,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>221</v>
       </c>
@@ -16824,7 +16789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>225</v>
       </c>
@@ -16844,7 +16809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>205</v>
       </c>
@@ -16864,7 +16829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>198</v>
       </c>
@@ -16882,7 +16847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>218</v>
       </c>
@@ -16895,7 +16860,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>230</v>
       </c>
@@ -16904,7 +16869,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>204</v>
       </c>
@@ -16912,7 +16877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>209</v>
       </c>
@@ -16920,7 +16885,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>223</v>
       </c>
@@ -16928,7 +16893,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>228</v>
       </c>
@@ -16936,153 +16901,153 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1">
       <c r="B13" s="31" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1">
       <c r="B14" s="31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1">
       <c r="B15" s="31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1">
       <c r="B16" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1">
       <c r="B18" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1">
       <c r="B19" s="31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1">
       <c r="B21" s="31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1">
       <c r="B22" s="31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1">
       <c r="B23" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1">
       <c r="B24" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1">
       <c r="B25" s="31" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1">
       <c r="B26" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1">
       <c r="B27" s="31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1">
       <c r="B28" s="31" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1">
       <c r="B29" s="31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1">
       <c r="B30" s="31" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1">
       <c r="B31" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1">
       <c r="B32" s="31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1">
       <c r="B33" s="31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1">
       <c r="B34" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1">
       <c r="B35" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1">
       <c r="B36" s="31" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1">
       <c r="B37" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1">
       <c r="B38" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1">
       <c r="B39" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1">
       <c r="B40" s="31" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -17092,27 +17057,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="39"/>
+    <col min="3" max="3" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="52" t="s">
         <v>336</v>
       </c>
@@ -17141,7 +17106,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="40" t="s">
         <v>106</v>
       </c>
@@ -17170,7 +17135,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="40" t="s">
         <v>337</v>
       </c>
@@ -17199,7 +17164,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="40" t="s">
         <v>338</v>
       </c>
@@ -17219,7 +17184,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="40" t="s">
         <v>335</v>
       </c>
@@ -17239,7 +17204,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="40" t="s">
         <v>339</v>
       </c>
@@ -17257,7 +17222,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="40" t="s">
         <v>327</v>
       </c>
@@ -17275,7 +17240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
@@ -17291,7 +17256,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
@@ -17307,7 +17272,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
@@ -17323,7 +17288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
@@ -17339,7 +17304,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
@@ -17353,7 +17318,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
@@ -17367,7 +17332,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
@@ -17381,472 +17346,472 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="I15" s="40" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="I16" s="40" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9">
       <c r="I17" s="40" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9">
       <c r="I18" s="40" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9">
       <c r="I19" s="40" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9">
       <c r="I20" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9">
       <c r="I21" s="40" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" s="40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9">
       <c r="I23" s="40" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9">
       <c r="I24" s="40" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" s="40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" s="40" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" s="40" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" s="40" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:9">
       <c r="I29" s="40" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:9">
       <c r="I30" s="40" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:9">
       <c r="I31" s="40" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:9">
       <c r="I32" s="40" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:9">
       <c r="I33" s="40" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:9">
       <c r="I34" s="40" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:9">
       <c r="I35" s="40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:9">
       <c r="I36" s="40" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:9">
       <c r="I37" s="40" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:9">
       <c r="I38" s="40" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:9">
       <c r="I39" s="40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:9">
       <c r="I40" s="40" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:9">
       <c r="I41" s="40" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:9">
       <c r="I42" s="40" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:9">
       <c r="I43" s="40" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:9">
       <c r="I44" s="40" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:9">
       <c r="I45" s="40" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:9">
       <c r="I46" s="40" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:9">
       <c r="I47" s="40" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:9">
       <c r="I48" s="40" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9">
       <c r="I49" s="40" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9">
       <c r="I50" s="40" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9">
       <c r="I51" s="40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9">
       <c r="I52" s="40" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9">
       <c r="I53" s="40" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9">
       <c r="I54" s="40" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9">
       <c r="I55" s="40" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9">
       <c r="I56" s="40" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9">
       <c r="I57" s="40" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9">
       <c r="I58" s="40" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:9">
       <c r="I59" s="40" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:9">
       <c r="I60" s="40" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:9">
       <c r="I61" s="40" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:9">
       <c r="I62" s="40" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:9">
       <c r="I63" s="40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:9">
       <c r="I64" s="40" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9">
       <c r="I65" s="40" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9">
       <c r="I66" s="40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9">
       <c r="I67" s="40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9">
       <c r="I68" s="40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9">
       <c r="I69" s="40" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9">
       <c r="I70" s="40" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9">
       <c r="I71" s="40" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9">
       <c r="I72" s="40" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9">
       <c r="I73" s="40" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9">
       <c r="I74" s="40" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9">
       <c r="I75" s="40" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9">
       <c r="I76" s="40" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9">
       <c r="I77" s="40" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9">
       <c r="I78" s="40" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9">
       <c r="I79" s="40" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9">
       <c r="I80" s="40" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9">
       <c r="I81" s="40" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9">
       <c r="I82" s="40" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9">
       <c r="I83" s="40" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9">
       <c r="I84" s="40" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9">
       <c r="I85" s="40" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9">
       <c r="I86" s="40" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9">
       <c r="I87" s="40" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9">
       <c r="I88" s="40" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9">
       <c r="I89" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9">
       <c r="I90" s="40" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9">
       <c r="I91" s="40" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9">
       <c r="I92" s="40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9">
       <c r="I93" s="40" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9">
       <c r="I94" s="40" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9">
       <c r="I95" s="40" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9">
       <c r="I96" s="40" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97" s="40" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" s="40" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99" s="40" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100" s="40" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" s="40" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102" s="40" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" s="40" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104" s="40" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" s="40" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" s="40" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" s="40" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108" s="40" t="s">
         <v>581</v>
       </c>
@@ -17858,23 +17823,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>446</v>
       </c>
@@ -17883,7 +17848,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -17900,7 +17865,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
@@ -17913,7 +17878,7 @@
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="29">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
@@ -17926,7 +17891,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -17939,7 +17904,7 @@
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="29">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
@@ -17952,7 +17917,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="39" customFormat="1" ht="32.5" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
@@ -17965,7 +17930,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="51" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
@@ -17978,7 +17943,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
@@ -17991,7 +17956,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="51" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
@@ -18004,7 +17969,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="92" t="s">
         <v>4</v>
       </c>
@@ -18019,25 +17984,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="39" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="39" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>447</v>
       </c>
@@ -18049,7 +18014,7 @@
       <c r="G1" s="95"/>
       <c r="H1" s="95"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -18075,7 +18040,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
@@ -18095,7 +18060,7 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="69.5" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -18107,7 +18072,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="102.5" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -18127,7 +18092,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -18139,7 +18104,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -18151,7 +18116,7 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -18163,7 +18128,7 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -18175,7 +18140,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -18187,7 +18152,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -18199,7 +18164,7 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -18211,7 +18176,7 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -18223,7 +18188,7 @@
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -18235,7 +18200,7 @@
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
     </row>
-    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -18247,7 +18212,7 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -18259,7 +18224,7 @@
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -18271,7 +18236,7 @@
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -18283,7 +18248,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -18295,7 +18260,7 @@
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -18307,7 +18272,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -18319,7 +18284,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -18331,7 +18296,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -18343,7 +18308,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -18355,7 +18320,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -18367,7 +18332,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
     </row>
-    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -18379,7 +18344,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -18391,7 +18356,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -18403,7 +18368,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -18415,7 +18380,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="39" customFormat="1">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -18427,7 +18392,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -18439,7 +18404,7 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -18451,7 +18416,7 @@
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -18463,7 +18428,7 @@
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -18475,7 +18440,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
@@ -18487,7 +18452,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="39" customFormat="1">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -18499,7 +18464,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A37" s="38" t="s">
         <v>5</v>
       </c>
@@ -18519,7 +18484,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -18531,7 +18496,7 @@
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -18543,7 +18508,7 @@
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -18555,7 +18520,7 @@
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -18567,7 +18532,7 @@
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -18579,7 +18544,7 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -18591,7 +18556,7 @@
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -18603,7 +18568,7 @@
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -18615,7 +18580,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -18627,7 +18592,7 @@
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -18639,7 +18604,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="39" customFormat="1">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -18651,7 +18616,7 @@
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="39" customFormat="1">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -18663,7 +18628,7 @@
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="39" customFormat="1">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -18675,7 +18640,7 @@
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A51" s="38" t="s">
         <v>5</v>
       </c>
@@ -18695,7 +18660,7 @@
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="39" customFormat="1">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -18707,7 +18672,7 @@
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" s="39" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="39" customFormat="1" ht="203">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -18719,7 +18684,7 @@
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="39" customFormat="1">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -18731,7 +18696,7 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A55" s="38" t="s">
         <v>5</v>
       </c>
@@ -18751,7 +18716,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -18763,7 +18728,7 @@
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="39" customFormat="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -18775,7 +18740,7 @@
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="39" customFormat="1">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -18787,7 +18752,7 @@
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -18799,7 +18764,7 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -18811,7 +18776,7 @@
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -18823,7 +18788,7 @@
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -18835,7 +18800,7 @@
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -18847,7 +18812,7 @@
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="39" customFormat="1">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -18859,7 +18824,7 @@
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -18871,7 +18836,7 @@
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="39" customFormat="1">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -18883,7 +18848,7 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="39" customFormat="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -18895,7 +18860,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="39" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -18907,7 +18872,7 @@
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -18919,7 +18884,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
     </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -18931,7 +18896,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
     </row>
-    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -18943,7 +18908,7 @@
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
     </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="39" customFormat="1" ht="87" customHeight="1">
       <c r="A72" s="38" t="s">
         <v>5</v>
       </c>
@@ -18963,7 +18928,7 @@
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
     </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -18975,7 +18940,7 @@
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -18987,7 +18952,7 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
     </row>
-    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -18999,7 +18964,7 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
     </row>
-    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -19011,7 +18976,7 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
     </row>
-    <row r="77" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -19023,7 +18988,7 @@
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
     </row>
-    <row r="78" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -19035,7 +19000,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
     </row>
-    <row r="79" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -19047,7 +19012,7 @@
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
     </row>
-    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -19059,7 +19024,7 @@
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -19071,7 +19036,7 @@
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
     </row>
-    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -19083,7 +19048,7 @@
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
     </row>
-    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -19095,7 +19060,7 @@
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
     </row>
-    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -19107,7 +19072,7 @@
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
     </row>
-    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -19119,7 +19084,7 @@
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
     </row>
-    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -19131,7 +19096,7 @@
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -19143,7 +19108,7 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -19155,7 +19120,7 @@
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -19167,7 +19132,7 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -19179,7 +19144,7 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
       <c r="A91" s="38" t="s">
         <v>5</v>
       </c>
@@ -19199,7 +19164,7 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -19211,7 +19176,7 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
     </row>
-    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -19223,7 +19188,7 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -19235,7 +19200,7 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -19247,7 +19212,7 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
     </row>
-    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -19259,7 +19224,7 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
     </row>
-    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -19271,7 +19236,7 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
     </row>
-    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -19283,7 +19248,7 @@
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
     </row>
-    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -19295,7 +19260,7 @@
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
     </row>
-    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -19307,7 +19272,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -19319,7 +19284,7 @@
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
@@ -19331,7 +19296,7 @@
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
@@ -19343,7 +19308,7 @@
       <c r="G103" s="38"/>
       <c r="H103" s="38"/>
     </row>
-    <row r="104" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A104" s="38"/>
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
@@ -19355,7 +19320,7 @@
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A105" s="38"/>
       <c r="B105" s="38"/>
       <c r="C105" s="38"/>
@@ -19367,7 +19332,7 @@
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A106" s="38"/>
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
@@ -19379,7 +19344,7 @@
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="39" customFormat="1">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
@@ -19391,7 +19356,7 @@
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="39" customFormat="1">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
@@ -19403,7 +19368,7 @@
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
       <c r="A109" s="38" t="s">
         <v>5</v>
       </c>
@@ -19423,7 +19388,7 @@
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
     </row>
-    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
@@ -19435,7 +19400,7 @@
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
     </row>
-    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
@@ -19447,7 +19412,7 @@
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
     </row>
-    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
@@ -19459,7 +19424,7 @@
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
     </row>
-    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
@@ -19471,7 +19436,7 @@
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
     </row>
-    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
@@ -19483,7 +19448,7 @@
       <c r="G114" s="38"/>
       <c r="H114" s="38"/>
     </row>
-    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
@@ -19495,7 +19460,7 @@
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
     </row>
-    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
@@ -19507,7 +19472,7 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
     </row>
-    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
@@ -19519,7 +19484,7 @@
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
     </row>
-    <row r="118" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
@@ -19531,7 +19496,7 @@
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
     </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A119" s="38"/>
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
@@ -19543,7 +19508,7 @@
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
     </row>
-    <row r="120" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
@@ -19555,7 +19520,7 @@
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
     </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="39" customFormat="1" ht="72.5">
       <c r="A121" s="38" t="s">
         <v>5</v>
       </c>
@@ -19575,7 +19540,7 @@
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
     </row>
-    <row r="122" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" s="39" customFormat="1" ht="101.5" customHeight="1">
       <c r="A122" s="38" t="s">
         <v>5</v>
       </c>
@@ -19595,7 +19560,7 @@
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
     </row>
-    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A123" s="38"/>
       <c r="B123" s="38"/>
       <c r="C123" s="38"/>
@@ -19607,7 +19572,7 @@
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
     </row>
-    <row r="124" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="39" customFormat="1" ht="43.5" customHeight="1">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
@@ -19619,7 +19584,7 @@
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
     </row>
-    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A125" s="38"/>
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
@@ -19631,7 +19596,7 @@
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
     </row>
-    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A126" s="38"/>
       <c r="B126" s="38"/>
       <c r="C126" s="38"/>
@@ -19643,7 +19608,7 @@
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
     </row>
-    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A127" s="38"/>
       <c r="B127" s="38"/>
       <c r="C127" s="38"/>
@@ -19655,7 +19620,7 @@
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
     </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
@@ -19667,7 +19632,7 @@
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
     </row>
-    <row r="129" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
@@ -19679,7 +19644,7 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
     </row>
-    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A130" s="38"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
@@ -19691,7 +19656,7 @@
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
     </row>
-    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A131" s="38"/>
       <c r="B131" s="38"/>
       <c r="C131" s="38"/>
@@ -19703,7 +19668,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
     </row>
-    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A132" s="38"/>
       <c r="B132" s="38"/>
       <c r="C132" s="38"/>
@@ -19715,7 +19680,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
     </row>
-    <row r="133" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A133" s="38"/>
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
@@ -19727,7 +19692,7 @@
       <c r="G133" s="38"/>
       <c r="H133" s="38"/>
     </row>
-    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A134" s="38"/>
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
@@ -19739,7 +19704,7 @@
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
     </row>
-    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A135" s="38"/>
       <c r="B135" s="38"/>
       <c r="C135" s="38"/>
@@ -19751,7 +19716,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
     </row>
-    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A136" s="38"/>
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
@@ -19763,7 +19728,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A137" s="38"/>
       <c r="B137" s="38"/>
       <c r="C137" s="38"/>
@@ -19775,7 +19740,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
     </row>
-    <row r="138" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A138" s="38"/>
       <c r="B138" s="38"/>
       <c r="C138" s="38"/>
@@ -19787,7 +19752,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
     </row>
-    <row r="139" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A139" s="38"/>
       <c r="B139" s="38"/>
       <c r="C139" s="38"/>
@@ -19799,7 +19764,7 @@
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
     </row>
-    <row r="140" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A140" s="38"/>
       <c r="B140" s="38"/>
       <c r="C140" s="38"/>
@@ -19811,7 +19776,7 @@
       <c r="G140" s="38"/>
       <c r="H140" s="38"/>
     </row>
-    <row r="141" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A141" s="38"/>
       <c r="B141" s="38"/>
       <c r="C141" s="38"/>
@@ -19823,7 +19788,7 @@
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
     </row>
-    <row r="142" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A142" s="38"/>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
@@ -19835,7 +19800,7 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
     </row>
-    <row r="143" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A143" s="38"/>
       <c r="B143" s="38"/>
       <c r="C143" s="38"/>
@@ -19847,7 +19812,7 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
     </row>
-    <row r="144" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A144" s="38"/>
       <c r="B144" s="38"/>
       <c r="C144" s="38"/>
@@ -19859,7 +19824,7 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
     </row>
-    <row r="145" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A145" s="38"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -19871,7 +19836,7 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
     </row>
-    <row r="146" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A146" s="38"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -19883,7 +19848,7 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
     </row>
-    <row r="147" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A147" s="38"/>
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
@@ -19895,7 +19860,7 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
     </row>
-    <row r="148" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A148" s="38"/>
       <c r="B148" s="38"/>
       <c r="C148" s="38"/>
@@ -19907,7 +19872,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
     </row>
-    <row r="149" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="A149" s="38"/>
       <c r="B149" s="38"/>
       <c r="C149" s="38"/>
@@ -19919,7 +19884,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
     </row>
-    <row r="150" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A150" s="38"/>
       <c r="B150" s="38"/>
       <c r="C150" s="38"/>
@@ -19931,7 +19896,7 @@
       <c r="G150" s="38"/>
       <c r="H150" s="38"/>
     </row>
-    <row r="151" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A151" s="38"/>
       <c r="B151" s="38"/>
       <c r="C151" s="38"/>
@@ -19943,7 +19908,7 @@
       <c r="G151" s="38"/>
       <c r="H151" s="38"/>
     </row>
-    <row r="152" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A152" s="38"/>
       <c r="B152" s="38"/>
       <c r="C152" s="38"/>
@@ -19955,7 +19920,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
     </row>
-    <row r="153" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" s="39" customFormat="1" ht="29" customHeight="1">
       <c r="A153" s="38"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
@@ -19967,7 +19932,7 @@
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
     </row>
-    <row r="154" spans="1:8" s="39" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" s="39" customFormat="1" ht="60" customHeight="1">
       <c r="A154" s="38"/>
       <c r="B154" s="38"/>
       <c r="C154" s="38"/>
@@ -19986,28 +19951,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="39" customWidth="1"/>
     <col min="8" max="8" width="21" style="39" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>475</v>
       </c>
@@ -20023,7 +19988,7 @@
       <c r="I1" s="100"/>
       <c r="J1" s="101"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -20055,7 +20020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>5</v>
       </c>
@@ -20085,7 +20050,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="29">
       <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
@@ -20115,7 +20080,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -20129,7 +20094,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -20159,7 +20124,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -20187,7 +20152,7 @@
       </c>
       <c r="J7" s="63"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -20209,7 +20174,7 @@
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
@@ -20233,7 +20198,7 @@
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="63" t="s">
         <v>5</v>
       </c>
@@ -20257,7 +20222,7 @@
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
@@ -20285,7 +20250,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -20307,7 +20272,7 @@
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
@@ -20329,7 +20294,7 @@
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="63" t="s">
         <v>5</v>
       </c>
@@ -20364,29 +20329,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="14" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="39" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>461</v>
       </c>
@@ -20404,7 +20369,7 @@
       <c r="K1" s="97"/>
       <c r="L1" s="98"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -20442,7 +20407,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="36" customFormat="1">
       <c r="A3" s="40" t="s">
         <v>322</v>
       </c>
@@ -20476,7 +20441,7 @@
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="36" customFormat="1">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -20492,7 +20457,7 @@
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -20530,7 +20495,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="36" customFormat="1">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -20564,7 +20529,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="36" customFormat="1">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
@@ -20609,27 +20574,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="39" customWidth="1"/>
     <col min="2" max="2" width="18" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="39" customWidth="1"/>
-    <col min="8" max="18" width="8.6640625" style="39" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="39"/>
+    <col min="3" max="3" width="9.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1796875" style="39" customWidth="1"/>
+    <col min="8" max="18" width="8.6328125" style="39" customWidth="1"/>
+    <col min="19" max="16384" width="8.6328125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="221" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>872</v>
       </c>
@@ -20642,7 +20607,7 @@
       </c>
       <c r="G1" s="97"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
@@ -20665,7 +20630,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>322</v>
       </c>
@@ -20688,7 +20653,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
@@ -20699,7 +20664,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -20708,7 +20673,7 @@
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
     </row>
-    <row r="6" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="94" customFormat="1">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -20717,7 +20682,7 @@
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
     </row>
-    <row r="7" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="94" customFormat="1">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -20726,7 +20691,7 @@
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="94" customFormat="1">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -20735,7 +20700,7 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="94" customFormat="1">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -20744,7 +20709,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="94" customFormat="1">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
@@ -20753,7 +20718,7 @@
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="94" customFormat="1">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
@@ -20762,7 +20727,7 @@
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="94" customFormat="1">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -20771,7 +20736,7 @@
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="94" customFormat="1">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -20780,7 +20745,7 @@
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -20789,7 +20754,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -20798,7 +20763,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -20807,7 +20772,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -20816,7 +20781,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -20825,7 +20790,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -20834,7 +20799,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -20843,7 +20808,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -20852,7 +20817,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -20861,7 +20826,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -20870,7 +20835,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -20879,7 +20844,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -20888,7 +20853,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -20897,7 +20862,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -20906,7 +20871,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -20915,7 +20880,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -20924,7 +20889,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -20944,28 +20909,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="39" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="39"/>
+    <col min="1" max="1" width="32.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="39" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>441</v>
       </c>
       <c r="B1" s="101"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -20973,13 +20938,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="40"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -20987,7 +20952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -20995,7 +20960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -21013,26 +20978,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>448</v>
       </c>
@@ -21044,7 +21009,7 @@
       <c r="G1" s="95"/>
       <c r="H1" s="95"/>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -21070,7 +21035,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>322</v>
       </c>
@@ -21092,7 +21057,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="28.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -21104,7 +21069,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.75" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
@@ -21130,7 +21095,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
@@ -21152,7 +21117,7 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Flat-template.xlsx
@@ -6567,77 +6567,6 @@
                                 Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 - Columns Region, Compartment Name, DRG Name are mandatory.
 - Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
@@ -6778,6 +6707,77 @@
   </si>
   <si>
     <t>flexible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9490,7 +9490,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="61" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -13811,13 +13811,13 @@
         <v>142</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>143</v>
@@ -13889,7 +13889,7 @@
         <v>399</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E4" s="40">
         <v>100</v>
@@ -17961,10 +17961,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>876</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>877</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>878</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -18066,7 +18066,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -18350,7 +18350,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -18374,7 +18374,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -18386,7 +18386,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -18446,7 +18446,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -18458,7 +18458,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -18622,7 +18622,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -18634,7 +18634,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -18645,16 +18645,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>404</v>
       </c>
       <c r="D51" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>880</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>881</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -18666,7 +18666,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -18678,7 +18678,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -18690,7 +18690,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -19126,7 +19126,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -19138,7 +19138,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -19158,7 +19158,7 @@
         <v>681</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -19242,7 +19242,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -19266,7 +19266,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -19278,7 +19278,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -19290,7 +19290,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -19338,7 +19338,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -19350,7 +19350,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -19362,7 +19362,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -19502,7 +19502,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -19514,7 +19514,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -19578,7 +19578,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -19782,7 +19782,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -19794,7 +19794,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -19806,7 +19806,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -19818,7 +19818,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -19866,7 +19866,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -19878,7 +19878,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -19926,7 +19926,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -20596,14 +20596,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="221" customHeight="1">
       <c r="A1" s="96" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
       <c r="E1" s="97"/>
       <c r="F1" s="96" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G1" s="97"/>
     </row>
